--- a/test_契約管理/已完成/test_契約管理_契約者一覧2.xlsx
+++ b/test_契約管理/已完成/test_契約管理_契約者一覧2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="27150" windowHeight="13650" tabRatio="758" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27150" windowHeight="13650" tabRatio="758"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15488" uniqueCount="1158">
   <si>
     <t>SQL</t>
   </si>
@@ -1677,7 +1677,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>勤務先備考</t>
     </r>
@@ -3524,14 +3524,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="50">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3565,7 +3562,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3579,38 +3576,37 @@
       <sz val="10"/>
       <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3624,7 +3620,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3637,7 +3633,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3650,14 +3646,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3676,76 +3670,28 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Meiryo UI"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -3757,31 +3703,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3792,83 +3716,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3877,8 +3733,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="43">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3893,19 +3755,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3917,7 +3779,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3929,7 +3791,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
+        <fgColor theme="8" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3941,13 +3803,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399914548173467"/>
+        <fgColor theme="8" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3971,168 +3833,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor theme="4" tint="0.79995117038483843"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -4190,309 +3896,67 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4520,20 +3984,20 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4549,7 +4013,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4562,7 +4026,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -4581,7 +4045,7 @@
     <xf numFmtId="49" fontId="9" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="11" borderId="1" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="11" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4622,95 +4086,222 @@
     <xf numFmtId="14" fontId="0" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="33">
+    <cellStyle name="ハイパーリンク 2" xfId="14"/>
+    <cellStyle name="ハイパーリンク 2 2" xfId="1"/>
+    <cellStyle name="標準 2" xfId="8"/>
+    <cellStyle name="標準 2 2" xfId="6"/>
+    <cellStyle name="標準 2 2 2" xfId="13"/>
+    <cellStyle name="標準 2 3" xfId="15"/>
+    <cellStyle name="標準 2_大興電子様向け）単価マスタ管理システム（ネタ)fukunaga" xfId="7"/>
+    <cellStyle name="標準 26" xfId="4"/>
+    <cellStyle name="標準 3" xfId="2"/>
+    <cellStyle name="標準 3 2" xfId="16"/>
+    <cellStyle name="標準 4" xfId="9"/>
+    <cellStyle name="標準 4 2" xfId="5"/>
+    <cellStyle name="標準 5" xfId="11"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="ハイパーリンク 2 2" xfId="1"/>
-    <cellStyle name="货币[0]" xfId="2" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="货币" xfId="5" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="標準 3" xfId="7"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="差" xfId="9" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
-    <cellStyle name="超链接" xfId="12" builtinId="8"/>
-    <cellStyle name="百分比" xfId="13" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="16"/>
-    <cellStyle name="標準 26" xfId="17"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="20" builtinId="11"/>
-    <cellStyle name="标题" xfId="21" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="22" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="23" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="24" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="25" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="26" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="27" builtinId="44"/>
-    <cellStyle name="输出" xfId="28" builtinId="21"/>
-    <cellStyle name="计算" xfId="29" builtinId="22"/>
-    <cellStyle name="標準 4 2" xfId="30"/>
-    <cellStyle name="检查单元格" xfId="31" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="32" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="33" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="34" builtinId="24"/>
-    <cellStyle name="汇总" xfId="35" builtinId="25"/>
-    <cellStyle name="好" xfId="36" builtinId="26"/>
-    <cellStyle name="標準 2 2" xfId="37"/>
-    <cellStyle name="适中" xfId="38" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="39" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="40" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="41" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="42" builtinId="31"/>
-    <cellStyle name="標準 2_大興電子様向け）単価マスタ管理システム（ネタ)fukunaga" xfId="43"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="44" builtinId="34"/>
-    <cellStyle name="標準 2" xfId="45"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="46" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="47" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="48" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="49" builtinId="42"/>
-    <cellStyle name="標準 4" xfId="50"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="51" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="52" builtinId="45"/>
-    <cellStyle name="常规 2 2" xfId="53"/>
-    <cellStyle name="標準 5" xfId="54"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="55" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="56" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="57" builtinId="49"/>
-    <cellStyle name="常规 2 3" xfId="58"/>
-    <cellStyle name="標準 2 2 2" xfId="59"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="60" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
-    <cellStyle name="ハイパーリンク 2" xfId="62"/>
-    <cellStyle name="標準 2 3" xfId="63"/>
-    <cellStyle name="標準 3 2" xfId="64"/>
-    <cellStyle name="常规 2" xfId="65"/>
-    <cellStyle name="常规 3" xfId="66"/>
-    <cellStyle name="常规 3 2" xfId="67"/>
-    <cellStyle name="常规 4" xfId="68"/>
-    <cellStyle name="常规 5" xfId="69"/>
-    <cellStyle name="常规 6 2" xfId="70"/>
-    <cellStyle name="常规 7" xfId="71"/>
-    <cellStyle name="常规 8" xfId="72"/>
-    <cellStyle name="超链接 2" xfId="73"/>
-    <cellStyle name="超链接 2 2" xfId="74"/>
-    <cellStyle name="超链接 3" xfId="75"/>
-    <cellStyle name="桁区切り 2" xfId="76"/>
-    <cellStyle name="桁区切り 2 2" xfId="77"/>
-    <cellStyle name="千位分隔 2" xfId="78"/>
-    <cellStyle name="千位分隔 3" xfId="79"/>
-    <cellStyle name="千位分隔 3 2" xfId="80"/>
+    <cellStyle name="常规 2" xfId="17"/>
+    <cellStyle name="常规 2 2" xfId="10"/>
+    <cellStyle name="常规 2 3" xfId="12"/>
+    <cellStyle name="常规 3" xfId="18"/>
+    <cellStyle name="常规 3 2" xfId="19"/>
+    <cellStyle name="常规 4" xfId="20"/>
+    <cellStyle name="常规 5" xfId="21"/>
+    <cellStyle name="常规 6" xfId="3"/>
+    <cellStyle name="常规 6 2" xfId="22"/>
+    <cellStyle name="常规 7" xfId="23"/>
+    <cellStyle name="常规 8" xfId="24"/>
+    <cellStyle name="超链接 2" xfId="25"/>
+    <cellStyle name="超链接 2 2" xfId="26"/>
+    <cellStyle name="超链接 3" xfId="27"/>
+    <cellStyle name="桁区切り 2" xfId="28"/>
+    <cellStyle name="桁区切り 2 2" xfId="29"/>
+    <cellStyle name="千位分隔 2" xfId="30"/>
+    <cellStyle name="千位分隔 3" xfId="31"/>
+    <cellStyle name="千位分隔 3 2" xfId="32"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="103">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF1F4BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF1F4BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4728,7 +4319,532 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFF1F4BD"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4736,8 +4852,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
-      <color rgb="00F6F5C5"/>
-      <color rgb="00F1F4BD"/>
+      <color rgb="FFF6F5C5"/>
+      <color rgb="FFF1F4BD"/>
     </mruColors>
   </colors>
   <extLst>
@@ -5027,36 +5143,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IE291"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="H193" sqref="H193"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="4" width="17.375" style="29" customWidth="1"/>
-    <col min="7" max="7" width="15.15" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
     <col min="8" max="8" width="14.75" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="11" max="11" width="13.675" customWidth="1"/>
-    <col min="12" max="12" width="13.2333333333333" customWidth="1"/>
+    <col min="11" max="11" width="13.625" customWidth="1"/>
+    <col min="12" max="12" width="13.25" customWidth="1"/>
     <col min="13" max="13" width="12.5" customWidth="1"/>
-    <col min="14" max="14" width="18.525" customWidth="1"/>
-    <col min="15" max="15" width="12.7916666666667" customWidth="1"/>
+    <col min="14" max="14" width="18.5" customWidth="1"/>
+    <col min="15" max="15" width="12.75" customWidth="1"/>
     <col min="16" max="16" width="10.125"/>
     <col min="18" max="18" width="10.125"/>
     <col min="27" max="27" width="10.125"/>
     <col min="35" max="35" width="10.125"/>
     <col min="37" max="37" width="10.125"/>
-    <col min="38" max="38" width="15.5833333333333" customWidth="1"/>
-    <col min="39" max="39" width="18.0833333333333" customWidth="1"/>
+    <col min="38" max="38" width="15.625" customWidth="1"/>
+    <col min="39" max="39" width="18.125" customWidth="1"/>
     <col min="41" max="43" width="10.125"/>
     <col min="45" max="46" width="10.125"/>
     <col min="49" max="49" width="10.125"/>
@@ -5067,321 +5183,255 @@
     <col min="135" max="135" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="1" spans="1:2" ht="14.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
     </row>
-    <row r="2" customFormat="1" ht="14.25" spans="1:4">
+    <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
     </row>
-    <row r="3" customFormat="1" ht="14.25" spans="1:4">
+    <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
     </row>
-    <row r="4" customFormat="1" ht="14.25" spans="1:4">
+    <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
     </row>
-    <row r="5" customFormat="1" ht="14.25" spans="1:4">
+    <row r="5" spans="1:2" ht="14.25">
       <c r="A5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
     </row>
-    <row r="6" customFormat="1" ht="14.25" spans="1:4">
+    <row r="6" spans="1:2" ht="14.25">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
     </row>
-    <row r="7" customFormat="1" ht="14.25" spans="1:4">
+    <row r="7" spans="1:2" ht="14.25">
       <c r="A7" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
     </row>
-    <row r="8" customFormat="1" spans="2:4">
+    <row r="8" spans="1:2">
       <c r="B8" s="25"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
     </row>
-    <row r="9" customFormat="1" ht="14.25" spans="1:4">
+    <row r="9" spans="1:2" ht="14.25">
       <c r="A9" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
     </row>
-    <row r="10" customFormat="1" ht="14.25" spans="1:4">
+    <row r="10" spans="1:2" ht="14.25">
       <c r="A10" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
     </row>
-    <row r="11" customFormat="1" ht="14.25" spans="1:4">
+    <row r="11" spans="1:2" ht="14.25">
       <c r="A11" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:2">
       <c r="B12" s="25"/>
     </row>
-    <row r="13" customFormat="1" ht="14.25" spans="1:4">
+    <row r="13" spans="1:2" ht="14.25">
       <c r="A13" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
     </row>
-    <row r="14" customFormat="1" ht="14.25" spans="1:4">
+    <row r="14" spans="1:2" ht="14.25">
       <c r="A14" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
     </row>
-    <row r="15" customFormat="1" ht="14.25" spans="1:4">
+    <row r="15" spans="1:2" ht="14.25">
       <c r="A15" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
     </row>
-    <row r="16" customFormat="1" ht="14.25" spans="1:4">
+    <row r="16" spans="1:2" ht="14.25">
       <c r="A16" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
     </row>
-    <row r="17" customFormat="1" ht="14.25" spans="1:4">
+    <row r="17" spans="1:2" ht="14.25">
       <c r="A17" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
     </row>
-    <row r="18" customFormat="1" ht="14.25" spans="1:4">
+    <row r="18" spans="1:2" ht="14.25">
       <c r="A18" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
     </row>
-    <row r="19" customFormat="1" ht="14.25" spans="1:4">
+    <row r="19" spans="1:2" ht="14.25">
       <c r="A19" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
     </row>
-    <row r="21" customFormat="1" ht="14.25" spans="1:4">
+    <row r="21" spans="1:2" ht="14.25">
       <c r="A21" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
     </row>
-    <row r="22" customFormat="1" ht="14.25" spans="1:4">
+    <row r="22" spans="1:2" ht="14.25">
       <c r="A22" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
     </row>
-    <row r="23" customFormat="1" ht="14.25" spans="1:4">
+    <row r="23" spans="1:2" ht="14.25">
       <c r="A23" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
     </row>
-    <row r="24" customFormat="1" spans="2:4">
+    <row r="24" spans="1:2">
       <c r="B24" s="25"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
     </row>
-    <row r="25" customFormat="1" ht="14.25" spans="1:4">
+    <row r="25" spans="1:2" ht="14.25">
       <c r="A25" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
     </row>
-    <row r="26" customFormat="1" ht="14.25" spans="1:4">
+    <row r="26" spans="1:2" ht="14.25">
       <c r="A26" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
     </row>
-    <row r="27" customFormat="1" spans="2:4">
+    <row r="27" spans="1:2">
       <c r="B27" s="25"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
     </row>
-    <row r="28" customFormat="1" ht="14.25" spans="1:4">
+    <row r="28" spans="1:2" ht="14.25">
       <c r="A28" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
     </row>
-    <row r="29" customFormat="1" ht="14.25" spans="1:4">
+    <row r="29" spans="1:2" ht="14.25">
       <c r="A29" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
     </row>
-    <row r="30" customFormat="1" ht="14.25" spans="1:4">
+    <row r="30" spans="1:2" ht="14.25">
       <c r="A30" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
     </row>
-    <row r="31" customFormat="1" ht="14.25" spans="1:4">
+    <row r="31" spans="1:2" ht="14.25">
       <c r="A31" s="14"/>
       <c r="B31" s="25"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
     </row>
-    <row r="32" customFormat="1" ht="14.25" spans="1:4">
+    <row r="32" spans="1:2" ht="14.25">
       <c r="A32" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
     </row>
-    <row r="33" customFormat="1" ht="14.25" spans="1:4">
+    <row r="33" spans="1:2" ht="14.25">
       <c r="A33" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
     </row>
-    <row r="34" customFormat="1" ht="14.25" spans="1:4">
+    <row r="34" spans="1:2" ht="14.25">
       <c r="A34" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
     </row>
-    <row r="35" customFormat="1" ht="14.25" spans="1:4">
+    <row r="35" spans="1:2" ht="14.25">
       <c r="A35" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B35" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
     </row>
-    <row r="36" ht="14.25" spans="1:2">
+    <row r="36" spans="1:2" ht="14.25">
       <c r="A36" s="14" t="s">
         <v>0</v>
       </c>
@@ -5389,186 +5439,144 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" customFormat="1" ht="14.25" spans="1:4">
+    <row r="37" spans="1:2" ht="14.25">
       <c r="A37" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
     </row>
-    <row r="38" customFormat="1" ht="14.25" spans="1:4">
+    <row r="38" spans="1:2" ht="14.25">
       <c r="A38" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B38" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
     </row>
-    <row r="39" customFormat="1" ht="14.25" spans="1:4">
+    <row r="39" spans="1:2" ht="14.25">
       <c r="A39" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B39" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
     </row>
-    <row r="40" customFormat="1" ht="14.25" spans="1:4">
+    <row r="40" spans="1:2" ht="14.25">
       <c r="A40" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
     </row>
-    <row r="41" customFormat="1" ht="14.25" spans="1:4">
+    <row r="41" spans="1:2" ht="14.25">
       <c r="A41" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
     </row>
-    <row r="42" customFormat="1" ht="14.25" spans="1:4">
+    <row r="42" spans="1:2" ht="14.25">
       <c r="A42" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B42" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
     </row>
-    <row r="43" customFormat="1" ht="14.25" spans="1:4">
+    <row r="43" spans="1:2" ht="14.25">
       <c r="A43" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B43" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
     </row>
-    <row r="44" customFormat="1" ht="14.25" spans="1:4">
+    <row r="44" spans="1:2" ht="14.25">
       <c r="A44" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B44" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
     </row>
-    <row r="45" customFormat="1" ht="14.25" spans="1:4">
+    <row r="45" spans="1:2" ht="14.25">
       <c r="A45" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
     </row>
-    <row r="46" customFormat="1" ht="14.25" spans="1:4">
+    <row r="46" spans="1:2" ht="14.25">
       <c r="A46" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B46" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
     </row>
-    <row r="47" customFormat="1" spans="3:4">
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-    </row>
-    <row r="48" customFormat="1" ht="14.25" spans="1:4">
+    <row r="48" spans="1:2" ht="14.25">
       <c r="A48" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B48" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
     </row>
-    <row r="49" customFormat="1" ht="14.25" spans="1:4">
+    <row r="49" spans="1:8" ht="14.25">
       <c r="A49" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B49" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
     </row>
-    <row r="50" customFormat="1" ht="14.25" spans="1:4">
+    <row r="50" spans="1:8" ht="14.25">
       <c r="A50" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B50" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
     </row>
-    <row r="51" customFormat="1" ht="14.25" spans="1:4">
+    <row r="51" spans="1:8" ht="14.25">
       <c r="A51" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B51" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
     </row>
-    <row r="52" customFormat="1" spans="1:4">
+    <row r="52" spans="1:8">
       <c r="A52" s="25"/>
       <c r="B52" s="25"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
     </row>
-    <row r="53" customFormat="1" ht="14.25" spans="1:4">
+    <row r="53" spans="1:8" ht="14.25">
       <c r="A53" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B53" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
     </row>
-    <row r="54" customFormat="1" ht="14.25" spans="1:4">
+    <row r="54" spans="1:8" ht="14.25">
       <c r="A54" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B54" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
     </row>
-    <row r="55" customFormat="1" ht="14.25" spans="1:4">
+    <row r="55" spans="1:8" ht="14.25">
       <c r="A55" s="30"/>
       <c r="B55" s="25"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
     </row>
-    <row r="56" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A56" s="14" t="s">
-        <v>0</v>
-      </c>
+    <row r="56" spans="1:8" ht="14.25">
+      <c r="A56" s="14"/>
       <c r="B56" s="25" t="s">
         <v>46</v>
       </c>
@@ -5579,7 +5587,7 @@
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" customFormat="1" ht="14.25" spans="1:8">
+    <row r="57" spans="1:8" ht="14.25">
       <c r="A57" s="14" t="s">
         <v>0</v>
       </c>
@@ -5593,7 +5601,7 @@
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" customFormat="1" ht="14.25" spans="1:8">
+    <row r="58" spans="1:8" ht="14.25">
       <c r="A58" s="14" t="s">
         <v>0</v>
       </c>
@@ -5607,7 +5615,7 @@
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" customFormat="1" ht="14.25" spans="1:8">
+    <row r="59" spans="1:8" ht="14.25">
       <c r="A59" s="14" t="s">
         <v>0</v>
       </c>
@@ -5621,7 +5629,7 @@
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" customFormat="1" ht="14.25" spans="1:8">
+    <row r="60" spans="1:8" ht="14.25">
       <c r="A60" s="14" t="s">
         <v>0</v>
       </c>
@@ -5635,27 +5643,23 @@
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" customFormat="1" ht="14.25" spans="1:4">
+    <row r="61" spans="1:8" ht="14.25">
       <c r="A61" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B61" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
     </row>
-    <row r="62" customFormat="1" ht="14.25" spans="1:4">
+    <row r="62" spans="1:8" ht="14.25">
       <c r="A62" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B62" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
     </row>
-    <row r="65" s="25" customFormat="1" ht="14.25" spans="1:2">
+    <row r="65" spans="1:74" s="25" customFormat="1" ht="14.25">
       <c r="A65" s="31" t="s">
         <v>53</v>
       </c>
@@ -5663,7 +5667,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="66" s="25" customFormat="1" ht="12" spans="2:19">
+    <row r="66" spans="1:74" s="25" customFormat="1" ht="12">
       <c r="B66" s="32" t="s">
         <v>55</v>
       </c>
@@ -5719,7 +5723,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="67" s="25" customFormat="1" ht="12" spans="2:19">
+    <row r="67" spans="1:74" s="25" customFormat="1" ht="12">
       <c r="B67" s="20" t="s">
         <v>57</v>
       </c>
@@ -5775,7 +5779,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68" s="25" customFormat="1" ht="12" spans="2:19">
+    <row r="68" spans="1:74" s="25" customFormat="1" ht="12">
       <c r="B68" s="34" t="s">
         <v>75</v>
       </c>
@@ -5831,7 +5835,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69" s="25" customFormat="1" ht="12" spans="2:19">
+    <row r="69" spans="1:74" s="25" customFormat="1" ht="12">
       <c r="B69" s="34" t="s">
         <v>81</v>
       </c>
@@ -5887,7 +5891,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70" s="25" customFormat="1" ht="12" spans="2:19">
+    <row r="70" spans="1:74" s="25" customFormat="1" ht="12">
       <c r="B70" s="34" t="s">
         <v>84</v>
       </c>
@@ -5943,7 +5947,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="71" s="25" customFormat="1" ht="12" spans="2:19">
+    <row r="71" spans="1:74" s="25" customFormat="1" ht="12">
       <c r="B71" s="34" t="s">
         <v>87</v>
       </c>
@@ -5999,7 +6003,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="72" s="25" customFormat="1" ht="12" spans="2:19">
+    <row r="72" spans="1:74" s="25" customFormat="1" ht="12">
       <c r="B72" s="34" t="s">
         <v>91</v>
       </c>
@@ -6055,7 +6059,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" s="25" customFormat="1" ht="12" spans="2:19">
+    <row r="73" spans="1:74" s="25" customFormat="1" ht="12">
       <c r="B73" s="34" t="s">
         <v>94</v>
       </c>
@@ -6111,7 +6115,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74" s="25" customFormat="1" ht="12" spans="2:19">
+    <row r="74" spans="1:74" s="25" customFormat="1" ht="12">
       <c r="B74" s="34" t="s">
         <v>96</v>
       </c>
@@ -6167,8 +6171,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" s="25" customFormat="1" ht="12"/>
-    <row r="76" s="12" customFormat="1" ht="12" spans="1:7">
+    <row r="75" spans="1:74" s="25" customFormat="1" ht="12"/>
+    <row r="76" spans="1:74" s="12" customFormat="1" ht="12">
       <c r="A76" s="25"/>
       <c r="B76" s="25"/>
       <c r="C76" s="25"/>
@@ -6177,7 +6181,7 @@
       <c r="F76" s="25"/>
       <c r="G76" s="25"/>
     </row>
-    <row r="77" customFormat="1" spans="1:7">
+    <row r="77" spans="1:74">
       <c r="A77" s="25"/>
       <c r="B77" s="25"/>
       <c r="C77" s="25"/>
@@ -6186,7 +6190,7 @@
       <c r="F77" s="25"/>
       <c r="G77" s="25"/>
     </row>
-    <row r="78" s="26" customFormat="1" ht="12.75" customHeight="1" spans="1:2">
+    <row r="78" spans="1:74" s="26" customFormat="1" ht="12.75" customHeight="1">
       <c r="A78" s="36" t="s">
         <v>53</v>
       </c>
@@ -6194,7 +6198,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" s="26" customFormat="1" spans="2:71">
+    <row r="79" spans="1:74" s="26" customFormat="1">
       <c r="B79" s="37" t="s">
         <v>100</v>
       </c>
@@ -6268,7 +6272,7 @@
       <c r="BR79" s="38"/>
       <c r="BS79" s="38"/>
     </row>
-    <row r="80" s="26" customFormat="1" spans="1:74">
+    <row r="80" spans="1:74" s="26" customFormat="1">
       <c r="A80" s="39"/>
       <c r="B80" s="40" t="s">
         <v>58</v>
@@ -6490,7 +6494,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="81" s="26" customFormat="1" spans="1:239">
+    <row r="81" spans="1:239" s="26" customFormat="1">
       <c r="A81" s="43"/>
       <c r="B81" s="44" t="s">
         <v>76</v>
@@ -6877,7 +6881,7 @@
       <c r="ID81" s="39"/>
       <c r="IE81" s="39"/>
     </row>
-    <row r="82" customFormat="1" spans="1:239">
+    <row r="82" spans="1:239">
       <c r="A82" s="39"/>
       <c r="B82" s="44" t="s">
         <v>88</v>
@@ -7264,7 +7268,7 @@
       <c r="ID82" s="39"/>
       <c r="IE82" s="39"/>
     </row>
-    <row r="83" customFormat="1" spans="1:239">
+    <row r="83" spans="1:239">
       <c r="A83" s="45"/>
       <c r="B83" s="44" t="s">
         <v>88</v>
@@ -7651,7 +7655,7 @@
       <c r="ID83" s="39"/>
       <c r="IE83" s="39"/>
     </row>
-    <row r="84" customFormat="1" spans="1:239">
+    <row r="84" spans="1:239">
       <c r="A84" s="45"/>
       <c r="B84" s="44" t="s">
         <v>76</v>
@@ -8038,7 +8042,7 @@
       <c r="ID84" s="39"/>
       <c r="IE84" s="39"/>
     </row>
-    <row r="85" customFormat="1" spans="1:239">
+    <row r="85" spans="1:239">
       <c r="A85" s="45"/>
       <c r="B85" s="44" t="s">
         <v>76</v>
@@ -8425,7 +8429,7 @@
       <c r="ID85" s="39"/>
       <c r="IE85" s="39"/>
     </row>
-    <row r="86" customFormat="1" spans="1:239">
+    <row r="86" spans="1:239">
       <c r="A86" s="45"/>
       <c r="B86" s="44" t="s">
         <v>88</v>
@@ -8812,7 +8816,7 @@
       <c r="ID86" s="39"/>
       <c r="IE86" s="39"/>
     </row>
-    <row r="87" customFormat="1" spans="1:239">
+    <row r="87" spans="1:239">
       <c r="A87" s="45"/>
       <c r="B87" s="44" t="s">
         <v>88</v>
@@ -9199,7 +9203,7 @@
       <c r="ID87" s="39"/>
       <c r="IE87" s="39"/>
     </row>
-    <row r="88" customFormat="1" spans="1:239">
+    <row r="88" spans="1:239">
       <c r="A88" s="45"/>
       <c r="B88" s="44" t="s">
         <v>76</v>
@@ -9586,7 +9590,7 @@
       <c r="ID88" s="39"/>
       <c r="IE88" s="39"/>
     </row>
-    <row r="89" customFormat="1" spans="1:7">
+    <row r="89" spans="1:239">
       <c r="A89" s="25"/>
       <c r="B89" s="25"/>
       <c r="C89" s="25"/>
@@ -9595,8 +9599,8 @@
       <c r="F89" s="25"/>
       <c r="G89" s="25"/>
     </row>
-    <row r="90" s="12" customFormat="1" ht="12"/>
-    <row r="91" s="12" customFormat="1" spans="2:35">
+    <row r="90" spans="1:239" s="12" customFormat="1" ht="12"/>
+    <row r="91" spans="1:239" s="12" customFormat="1">
       <c r="B91" s="45"/>
       <c r="C91" s="39"/>
       <c r="D91" s="39"/>
@@ -9632,7 +9636,7 @@
       <c r="AH91" s="39"/>
       <c r="AI91" s="39"/>
     </row>
-    <row r="92" s="12" customFormat="1" spans="2:35">
+    <row r="92" spans="1:239" s="12" customFormat="1">
       <c r="B92" s="46"/>
       <c r="C92" s="39"/>
       <c r="D92" s="39"/>
@@ -9668,7 +9672,7 @@
       <c r="AH92" s="39"/>
       <c r="AI92" s="39"/>
     </row>
-    <row r="93" s="12" customFormat="1" ht="14.25" spans="1:35">
+    <row r="93" spans="1:239" s="12" customFormat="1" ht="14.25">
       <c r="A93" s="31" t="s">
         <v>53</v>
       </c>
@@ -9709,7 +9713,7 @@
       <c r="AH93" s="39"/>
       <c r="AI93" s="39"/>
     </row>
-    <row r="94" s="12" customFormat="1" spans="2:35">
+    <row r="94" spans="1:239" s="12" customFormat="1">
       <c r="B94" s="32" t="s">
         <v>220</v>
       </c>
@@ -9747,7 +9751,7 @@
       <c r="AH94" s="39"/>
       <c r="AI94" s="39"/>
     </row>
-    <row r="95" s="12" customFormat="1" spans="2:35">
+    <row r="95" spans="1:239" s="12" customFormat="1">
       <c r="B95" s="19" t="s">
         <v>58</v>
       </c>
@@ -9797,7 +9801,7 @@
       <c r="AH95" s="39"/>
       <c r="AI95" s="39"/>
     </row>
-    <row r="96" s="12" customFormat="1" spans="2:35">
+    <row r="96" spans="1:239" s="12" customFormat="1">
       <c r="B96" s="34" t="s">
         <v>76</v>
       </c>
@@ -9847,7 +9851,7 @@
       <c r="AH96" s="39"/>
       <c r="AI96" s="39"/>
     </row>
-    <row r="97" s="12" customFormat="1" spans="2:35">
+    <row r="97" spans="1:36" s="12" customFormat="1">
       <c r="B97" s="45"/>
       <c r="C97" s="39"/>
       <c r="D97" s="39"/>
@@ -9883,7 +9887,7 @@
       <c r="AH97" s="39"/>
       <c r="AI97" s="39"/>
     </row>
-    <row r="98" s="12" customFormat="1" spans="2:35">
+    <row r="98" spans="1:36" s="12" customFormat="1">
       <c r="B98" s="46"/>
       <c r="C98" s="39"/>
       <c r="D98" s="39"/>
@@ -9919,7 +9923,7 @@
       <c r="AH98" s="39"/>
       <c r="AI98" s="39"/>
     </row>
-    <row r="99" s="12" customFormat="1" spans="2:35">
+    <row r="99" spans="1:36" s="12" customFormat="1">
       <c r="B99" s="39"/>
       <c r="C99" s="39"/>
       <c r="D99" s="39"/>
@@ -9955,8 +9959,8 @@
       <c r="AH99" s="39"/>
       <c r="AI99" s="39"/>
     </row>
-    <row r="100" s="12" customFormat="1" ht="12"/>
-    <row r="101" s="12" customFormat="1" ht="14.25" spans="1:2">
+    <row r="100" spans="1:36" s="12" customFormat="1" ht="12"/>
+    <row r="101" spans="1:36" s="12" customFormat="1" ht="14.25">
       <c r="A101" s="47" t="s">
         <v>53</v>
       </c>
@@ -9964,13 +9968,13 @@
         <v>223</v>
       </c>
     </row>
-    <row r="102" s="12" customFormat="1" ht="12" spans="1:2">
+    <row r="102" spans="1:36" s="12" customFormat="1" ht="12">
       <c r="A102" s="48"/>
       <c r="B102" s="46" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="103" s="12" customFormat="1" ht="12" spans="2:36">
+    <row r="103" spans="1:36" s="12" customFormat="1" ht="12">
       <c r="B103" s="20" t="s">
         <v>57</v>
       </c>
@@ -10075,7 +10079,7 @@
       </c>
       <c r="AJ103" s="19"/>
     </row>
-    <row r="104" s="12" customFormat="1" ht="12" spans="2:35">
+    <row r="104" spans="1:36" s="12" customFormat="1" ht="12">
       <c r="B104" s="34">
         <v>1</v>
       </c>
@@ -10179,7 +10183,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="105" s="12" customFormat="1" ht="12" spans="2:35">
+    <row r="105" spans="1:36" s="12" customFormat="1" ht="12">
       <c r="B105" s="34">
         <v>2</v>
       </c>
@@ -10283,7 +10287,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="106" s="12" customFormat="1" ht="12" spans="2:35">
+    <row r="106" spans="1:36" s="12" customFormat="1" ht="12">
       <c r="B106" s="34">
         <v>3</v>
       </c>
@@ -10387,7 +10391,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="107" s="12" customFormat="1" ht="12" spans="2:35">
+    <row r="107" spans="1:36" s="12" customFormat="1" ht="12">
       <c r="B107" s="34">
         <v>4</v>
       </c>
@@ -10491,7 +10495,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="108" s="12" customFormat="1" ht="12" spans="2:35">
+    <row r="108" spans="1:36" s="12" customFormat="1" ht="12">
       <c r="B108" s="34">
         <v>5</v>
       </c>
@@ -10595,7 +10599,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="109" s="12" customFormat="1" ht="12" spans="2:35">
+    <row r="109" spans="1:36" s="12" customFormat="1" ht="12">
       <c r="B109" s="34">
         <v>6</v>
       </c>
@@ -10699,7 +10703,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="110" s="12" customFormat="1" ht="12" spans="2:35">
+    <row r="110" spans="1:36" s="12" customFormat="1" ht="12">
       <c r="B110" s="34">
         <v>7</v>
       </c>
@@ -10803,7 +10807,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="111" s="12" customFormat="1" ht="12" spans="2:35">
+    <row r="111" spans="1:36" s="12" customFormat="1" ht="12">
       <c r="B111" s="34">
         <v>8</v>
       </c>
@@ -10907,7 +10911,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="112" s="12" customFormat="1" ht="12" spans="2:35">
+    <row r="112" spans="1:36" s="12" customFormat="1" ht="12">
       <c r="B112" s="34">
         <v>9</v>
       </c>
@@ -11011,7 +11015,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="113" s="12" customFormat="1" ht="12" spans="2:35">
+    <row r="113" spans="1:239" s="12" customFormat="1" ht="12">
       <c r="B113" s="34">
         <v>10</v>
       </c>
@@ -11115,7 +11119,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="114" s="12" customFormat="1" ht="12" spans="2:35">
+    <row r="114" spans="1:239" s="12" customFormat="1" ht="12">
       <c r="B114" s="34">
         <v>11</v>
       </c>
@@ -11219,7 +11223,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="115" s="12" customFormat="1" ht="12" spans="2:35">
+    <row r="115" spans="1:239" s="12" customFormat="1" ht="12">
       <c r="B115" s="34">
         <v>12</v>
       </c>
@@ -11323,7 +11327,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="116" s="12" customFormat="1" ht="12" spans="2:35">
+    <row r="116" spans="1:239" s="12" customFormat="1" ht="12">
       <c r="B116" s="34">
         <v>13</v>
       </c>
@@ -11427,7 +11431,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="117" s="12" customFormat="1" ht="12" spans="2:35">
+    <row r="117" spans="1:239" s="12" customFormat="1" ht="12">
       <c r="B117" s="34">
         <v>14</v>
       </c>
@@ -11531,7 +11535,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="118" s="12" customFormat="1" ht="12" spans="2:35">
+    <row r="118" spans="1:239" s="12" customFormat="1" ht="12">
       <c r="B118" s="34">
         <v>15</v>
       </c>
@@ -11635,7 +11639,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="119" s="12" customFormat="1" ht="12" spans="2:35">
+    <row r="119" spans="1:239" s="12" customFormat="1" ht="12">
       <c r="B119" s="34">
         <v>390</v>
       </c>
@@ -11739,7 +11743,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="120" s="12" customFormat="1" spans="2:35">
+    <row r="120" spans="1:239" s="12" customFormat="1">
       <c r="B120" s="39"/>
       <c r="C120" s="39"/>
       <c r="D120" s="39"/>
@@ -11775,7 +11779,7 @@
       <c r="AH120" s="39"/>
       <c r="AI120" s="39"/>
     </row>
-    <row r="121" s="12" customFormat="1" spans="2:35">
+    <row r="121" spans="1:239" s="12" customFormat="1">
       <c r="B121" s="39"/>
       <c r="C121" s="39"/>
       <c r="D121" s="39"/>
@@ -11811,7 +11815,7 @@
       <c r="AH121" s="39"/>
       <c r="AI121" s="39"/>
     </row>
-    <row r="122" s="12" customFormat="1" spans="2:35">
+    <row r="122" spans="1:239" s="12" customFormat="1">
       <c r="B122" s="39"/>
       <c r="C122" s="39"/>
       <c r="D122" s="39"/>
@@ -11847,7 +11851,7 @@
       <c r="AH122" s="39"/>
       <c r="AI122" s="39"/>
     </row>
-    <row r="123" s="12" customFormat="1" spans="2:35">
+    <row r="123" spans="1:239" s="12" customFormat="1">
       <c r="B123" s="39"/>
       <c r="C123" s="39"/>
       <c r="D123" s="39"/>
@@ -11883,7 +11887,7 @@
       <c r="AH123" s="39"/>
       <c r="AI123" s="39"/>
     </row>
-    <row r="124" s="12" customFormat="1" spans="2:35">
+    <row r="124" spans="1:239" s="12" customFormat="1">
       <c r="B124" s="39"/>
       <c r="C124" s="39"/>
       <c r="D124" s="39"/>
@@ -11919,7 +11923,7 @@
       <c r="AH124" s="39"/>
       <c r="AI124" s="39"/>
     </row>
-    <row r="125" s="12" customFormat="1" spans="2:35">
+    <row r="125" spans="1:239" s="12" customFormat="1">
       <c r="B125" s="45"/>
       <c r="C125" s="39"/>
       <c r="D125" s="39"/>
@@ -11955,7 +11959,7 @@
       <c r="AH125" s="39"/>
       <c r="AI125" s="39"/>
     </row>
-    <row r="126" s="12" customFormat="1" ht="14.25" spans="1:35">
+    <row r="126" spans="1:239" s="12" customFormat="1" ht="14.25">
       <c r="A126" s="47" t="s">
         <v>53</v>
       </c>
@@ -11996,7 +12000,7 @@
       <c r="AH126" s="39"/>
       <c r="AI126" s="39"/>
     </row>
-    <row r="127" s="12" customFormat="1" spans="1:35">
+    <row r="127" spans="1:239" s="12" customFormat="1">
       <c r="A127" s="48"/>
       <c r="B127" s="46" t="s">
         <v>255</v>
@@ -12035,7 +12039,7 @@
       <c r="AH127" s="39"/>
       <c r="AI127" s="39"/>
     </row>
-    <row r="128" s="12" customFormat="1" spans="1:239">
+    <row r="128" spans="1:239" s="12" customFormat="1">
       <c r="A128" s="39"/>
       <c r="B128" s="20" t="s">
         <v>101</v>
@@ -12752,7 +12756,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="129" s="12" customFormat="1" spans="1:239">
+    <row r="129" spans="1:239" s="12" customFormat="1">
       <c r="A129" s="39"/>
       <c r="B129" s="34">
         <v>49</v>
@@ -13469,7 +13473,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="130" s="12" customFormat="1" spans="1:239">
+    <row r="130" spans="1:239" s="12" customFormat="1">
       <c r="A130" s="39"/>
       <c r="B130" s="34">
         <v>50</v>
@@ -14186,7 +14190,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="131" s="12" customFormat="1" spans="1:239">
+    <row r="131" spans="1:239" s="12" customFormat="1">
       <c r="A131" s="39"/>
       <c r="B131" s="34">
         <v>51</v>
@@ -14903,7 +14907,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="132" s="12" customFormat="1" spans="1:239">
+    <row r="132" spans="1:239" s="12" customFormat="1">
       <c r="A132" s="39"/>
       <c r="B132" s="34">
         <v>52</v>
@@ -15620,7 +15624,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="133" s="12" customFormat="1" spans="1:239">
+    <row r="133" spans="1:239" s="12" customFormat="1">
       <c r="A133" s="39"/>
       <c r="B133" s="34">
         <v>53</v>
@@ -16337,7 +16341,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="134" s="12" customFormat="1" spans="1:239">
+    <row r="134" spans="1:239" s="12" customFormat="1">
       <c r="A134" s="39"/>
       <c r="B134" s="34">
         <v>54</v>
@@ -17054,7 +17058,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="135" s="12" customFormat="1" spans="1:239">
+    <row r="135" spans="1:239" s="12" customFormat="1">
       <c r="A135" s="39"/>
       <c r="B135" s="34">
         <v>55</v>
@@ -17771,7 +17775,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="136" s="12" customFormat="1" spans="1:239">
+    <row r="136" spans="1:239" s="12" customFormat="1">
       <c r="A136" s="39"/>
       <c r="B136" s="34">
         <v>56</v>
@@ -18488,7 +18492,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="137" s="12" customFormat="1" spans="1:239">
+    <row r="137" spans="1:239" s="12" customFormat="1">
       <c r="A137" s="39"/>
       <c r="B137" s="34">
         <v>57</v>
@@ -19205,7 +19209,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="138" s="12" customFormat="1" spans="1:239">
+    <row r="138" spans="1:239" s="12" customFormat="1">
       <c r="A138" s="39"/>
       <c r="B138" s="34">
         <v>58</v>
@@ -19922,7 +19926,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="139" s="12" customFormat="1" spans="1:239">
+    <row r="139" spans="1:239" s="12" customFormat="1">
       <c r="A139" s="39"/>
       <c r="B139" s="34">
         <v>59</v>
@@ -20639,7 +20643,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="140" s="12" customFormat="1" spans="1:239">
+    <row r="140" spans="1:239" s="12" customFormat="1">
       <c r="A140" s="39"/>
       <c r="B140" s="34">
         <v>60</v>
@@ -21356,7 +21360,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="141" s="12" customFormat="1" spans="1:239">
+    <row r="141" spans="1:239" s="12" customFormat="1">
       <c r="A141" s="39"/>
       <c r="B141" s="34">
         <v>61</v>
@@ -22073,7 +22077,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="142" s="12" customFormat="1" spans="1:239">
+    <row r="142" spans="1:239" s="12" customFormat="1">
       <c r="A142" s="39"/>
       <c r="B142" s="34">
         <v>62</v>
@@ -22790,7 +22794,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="143" s="12" customFormat="1" spans="1:239">
+    <row r="143" spans="1:239" s="12" customFormat="1">
       <c r="A143" s="39"/>
       <c r="B143" s="34">
         <v>63</v>
@@ -23507,7 +23511,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="144" s="12" customFormat="1" spans="1:239">
+    <row r="144" spans="1:239" s="12" customFormat="1">
       <c r="A144" s="39"/>
       <c r="B144" s="34">
         <v>65</v>
@@ -24224,7 +24228,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="145" s="12" customFormat="1" spans="1:239">
+    <row r="145" spans="1:239" s="12" customFormat="1">
       <c r="A145" s="39"/>
       <c r="B145" s="34">
         <v>66</v>
@@ -24941,7 +24945,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="146" s="12" customFormat="1" spans="1:239">
+    <row r="146" spans="1:239" s="12" customFormat="1">
       <c r="A146" s="39"/>
       <c r="B146" s="34">
         <v>67</v>
@@ -25658,7 +25662,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="147" s="12" customFormat="1" spans="1:239">
+    <row r="147" spans="1:239" s="12" customFormat="1">
       <c r="A147" s="39"/>
       <c r="B147" s="34">
         <v>68</v>
@@ -26375,7 +26379,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="148" s="12" customFormat="1" spans="1:239">
+    <row r="148" spans="1:239" s="12" customFormat="1">
       <c r="A148" s="39"/>
       <c r="B148" s="34">
         <v>69</v>
@@ -27092,7 +27096,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="149" s="12" customFormat="1" spans="1:239">
+    <row r="149" spans="1:239" s="12" customFormat="1">
       <c r="A149" s="39"/>
       <c r="B149" s="34">
         <v>70</v>
@@ -27809,7 +27813,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="150" s="12" customFormat="1" spans="1:239">
+    <row r="150" spans="1:239" s="12" customFormat="1">
       <c r="A150" s="39"/>
       <c r="B150" s="34">
         <v>71</v>
@@ -28526,7 +28530,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="151" s="12" customFormat="1" spans="1:239">
+    <row r="151" spans="1:239" s="12" customFormat="1">
       <c r="A151" s="39"/>
       <c r="B151" s="34">
         <v>72</v>
@@ -29243,7 +29247,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="152" s="12" customFormat="1" spans="1:239">
+    <row r="152" spans="1:239" s="12" customFormat="1">
       <c r="A152" s="39"/>
       <c r="B152" s="34">
         <v>73</v>
@@ -29960,7 +29964,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="153" s="12" customFormat="1" spans="1:239">
+    <row r="153" spans="1:239" s="12" customFormat="1">
       <c r="A153" s="39"/>
       <c r="B153" s="34">
         <v>74</v>
@@ -30677,7 +30681,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="154" s="12" customFormat="1" spans="1:239">
+    <row r="154" spans="1:239" s="12" customFormat="1">
       <c r="A154" s="39"/>
       <c r="B154" s="34">
         <v>75</v>
@@ -31394,7 +31398,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="155" s="12" customFormat="1" spans="1:239">
+    <row r="155" spans="1:239" s="12" customFormat="1">
       <c r="A155" s="39"/>
       <c r="B155" s="34">
         <v>76</v>
@@ -32111,7 +32115,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="156" s="12" customFormat="1" spans="1:239">
+    <row r="156" spans="1:239" s="12" customFormat="1">
       <c r="A156" s="39"/>
       <c r="B156" s="34">
         <v>77</v>
@@ -32828,7 +32832,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="157" s="12" customFormat="1" spans="1:239">
+    <row r="157" spans="1:239" s="12" customFormat="1">
       <c r="A157" s="39"/>
       <c r="B157" s="34">
         <v>78</v>
@@ -33545,7 +33549,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="158" s="12" customFormat="1" spans="1:239">
+    <row r="158" spans="1:239" s="12" customFormat="1">
       <c r="A158" s="39"/>
       <c r="B158" s="34">
         <v>79</v>
@@ -34262,7 +34266,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="159" s="12" customFormat="1" spans="1:239">
+    <row r="159" spans="1:239" s="12" customFormat="1">
       <c r="A159" s="39"/>
       <c r="B159" s="34">
         <v>80</v>
@@ -34979,7 +34983,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="160" s="12" customFormat="1" spans="2:104">
+    <row r="160" spans="1:239" s="12" customFormat="1">
       <c r="B160" s="39"/>
       <c r="C160" s="39"/>
       <c r="D160" s="39"/>
@@ -35016,7 +35020,7 @@
       <c r="AI160" s="39"/>
       <c r="CZ160" s="39"/>
     </row>
-    <row r="161" s="12" customFormat="1" spans="2:35">
+    <row r="161" spans="1:148" s="12" customFormat="1">
       <c r="B161" s="45"/>
       <c r="C161" s="39"/>
       <c r="D161" s="39"/>
@@ -35052,7 +35056,7 @@
       <c r="AH161" s="39"/>
       <c r="AI161" s="39"/>
     </row>
-    <row r="162" s="12" customFormat="1" spans="2:34">
+    <row r="162" spans="1:148" s="12" customFormat="1">
       <c r="B162" s="39"/>
       <c r="C162" s="39"/>
       <c r="D162" s="39"/>
@@ -35087,7 +35091,7 @@
       <c r="AG162" s="39"/>
       <c r="AH162" s="39"/>
     </row>
-    <row r="163" s="12" customFormat="1" spans="2:34">
+    <row r="163" spans="1:148" s="12" customFormat="1">
       <c r="B163" s="39"/>
       <c r="C163" s="39"/>
       <c r="D163" s="39"/>
@@ -35122,7 +35126,7 @@
       <c r="AG163" s="39"/>
       <c r="AH163" s="39"/>
     </row>
-    <row r="164" s="12" customFormat="1" spans="2:34">
+    <row r="164" spans="1:148" s="12" customFormat="1">
       <c r="B164" s="39"/>
       <c r="C164" s="39"/>
       <c r="D164" s="39"/>
@@ -35157,7 +35161,7 @@
       <c r="AG164" s="39"/>
       <c r="AH164" s="39"/>
     </row>
-    <row r="165" s="12" customFormat="1" spans="2:34">
+    <row r="165" spans="1:148" s="12" customFormat="1">
       <c r="B165" s="39"/>
       <c r="C165" s="39"/>
       <c r="D165" s="39"/>
@@ -35192,7 +35196,7 @@
       <c r="AG165" s="39"/>
       <c r="AH165" s="39"/>
     </row>
-    <row r="166" s="12" customFormat="1" ht="14.25" spans="1:34">
+    <row r="166" spans="1:148" s="12" customFormat="1" ht="14.25">
       <c r="A166" s="47" t="s">
         <v>53</v>
       </c>
@@ -35232,13 +35236,13 @@
       <c r="AG166" s="39"/>
       <c r="AH166" s="39"/>
     </row>
-    <row r="167" s="12" customFormat="1" ht="12" spans="1:2">
+    <row r="167" spans="1:148" s="12" customFormat="1" ht="12">
       <c r="A167" s="48"/>
       <c r="B167" s="46" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="168" s="12" customFormat="1" ht="12" spans="2:148">
+    <row r="168" spans="1:148" s="12" customFormat="1" ht="12">
       <c r="B168" s="19" t="s">
         <v>58</v>
       </c>
@@ -35667,7 +35671,7 @@
       <c r="EQ168" s="19"/>
       <c r="ER168" s="19"/>
     </row>
-    <row r="169" s="12" customFormat="1" ht="12" spans="2:141">
+    <row r="169" spans="1:148" s="12" customFormat="1" ht="12">
       <c r="B169" s="34" t="s">
         <v>952</v>
       </c>
@@ -36085,7 +36089,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="170" s="12" customFormat="1" ht="12" spans="2:141">
+    <row r="170" spans="1:148" s="12" customFormat="1" ht="12">
       <c r="B170" s="34" t="s">
         <v>964</v>
       </c>
@@ -36505,7 +36509,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="171" s="12" customFormat="1" ht="12" spans="2:141">
+    <row r="171" spans="1:148" s="12" customFormat="1" ht="12">
       <c r="B171" s="34" t="s">
         <v>970</v>
       </c>
@@ -36923,7 +36927,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="172" s="12" customFormat="1" ht="12" spans="2:141">
+    <row r="172" spans="1:148" s="12" customFormat="1" ht="12">
       <c r="B172" s="34" t="s">
         <v>970</v>
       </c>
@@ -37341,7 +37345,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="173" s="12" customFormat="1" ht="12" spans="2:141">
+    <row r="173" spans="1:148" s="12" customFormat="1" ht="12">
       <c r="B173" s="34" t="s">
         <v>970</v>
       </c>
@@ -37759,7 +37763,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="174" s="12" customFormat="1" ht="12" spans="2:141">
+    <row r="174" spans="1:148" s="12" customFormat="1" ht="12">
       <c r="B174" s="34" t="s">
         <v>970</v>
       </c>
@@ -38177,7 +38181,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="175" s="12" customFormat="1" ht="12" spans="2:141">
+    <row r="175" spans="1:148" s="12" customFormat="1" ht="12">
       <c r="B175" s="34" t="s">
         <v>970</v>
       </c>
@@ -38595,7 +38599,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="176" s="12" customFormat="1" ht="12" spans="2:141">
+    <row r="176" spans="1:148" s="12" customFormat="1" ht="12">
       <c r="B176" s="34" t="s">
         <v>970</v>
       </c>
@@ -39013,7 +39017,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="177" s="27" customFormat="1" spans="2:146">
+    <row r="177" spans="2:146" s="27" customFormat="1">
       <c r="B177" s="34" t="s">
         <v>970</v>
       </c>
@@ -39436,7 +39440,7 @@
       <c r="EO177" s="12"/>
       <c r="EP177" s="12"/>
     </row>
-    <row r="178" s="27" customFormat="1" spans="2:146">
+    <row r="178" spans="2:146" s="27" customFormat="1">
       <c r="B178" s="34" t="s">
         <v>970</v>
       </c>
@@ -39859,7 +39863,7 @@
       <c r="EO178" s="12"/>
       <c r="EP178" s="12"/>
     </row>
-    <row r="179" s="27" customFormat="1" spans="2:146">
+    <row r="179" spans="2:146" s="27" customFormat="1">
       <c r="B179" s="34" t="s">
         <v>970</v>
       </c>
@@ -40282,7 +40286,7 @@
       <c r="EO179" s="12"/>
       <c r="EP179" s="12"/>
     </row>
-    <row r="180" s="27" customFormat="1" spans="2:146">
+    <row r="180" spans="2:146" s="27" customFormat="1">
       <c r="B180" s="34" t="s">
         <v>970</v>
       </c>
@@ -40705,7 +40709,7 @@
       <c r="EO180" s="12"/>
       <c r="EP180" s="12"/>
     </row>
-    <row r="181" s="27" customFormat="1" spans="2:146">
+    <row r="181" spans="2:146" s="27" customFormat="1">
       <c r="B181" s="34" t="s">
         <v>970</v>
       </c>
@@ -41128,7 +41132,7 @@
       <c r="EO181" s="12"/>
       <c r="EP181" s="12"/>
     </row>
-    <row r="182" s="27" customFormat="1" spans="2:146">
+    <row r="182" spans="2:146" s="27" customFormat="1">
       <c r="B182" s="34" t="s">
         <v>970</v>
       </c>
@@ -41555,7 +41559,7 @@
       <c r="EO182" s="12"/>
       <c r="EP182" s="12"/>
     </row>
-    <row r="183" s="27" customFormat="1" spans="2:146">
+    <row r="183" spans="2:146" s="27" customFormat="1">
       <c r="B183" s="34" t="s">
         <v>970</v>
       </c>
@@ -41978,7 +41982,7 @@
       <c r="EO183" s="12"/>
       <c r="EP183" s="12"/>
     </row>
-    <row r="184" s="27" customFormat="1" spans="2:146">
+    <row r="184" spans="2:146" s="27" customFormat="1">
       <c r="B184" s="34" t="s">
         <v>970</v>
       </c>
@@ -42401,7 +42405,7 @@
       <c r="EO184" s="12"/>
       <c r="EP184" s="12"/>
     </row>
-    <row r="185" s="27" customFormat="1" spans="2:146">
+    <row r="185" spans="2:146" s="27" customFormat="1">
       <c r="B185" s="34" t="s">
         <v>970</v>
       </c>
@@ -42824,7 +42828,7 @@
       <c r="EO185" s="12"/>
       <c r="EP185" s="12"/>
     </row>
-    <row r="186" s="27" customFormat="1" spans="2:146">
+    <row r="186" spans="2:146" s="27" customFormat="1">
       <c r="B186" s="34" t="s">
         <v>970</v>
       </c>
@@ -43247,7 +43251,7 @@
       <c r="EO186" s="12"/>
       <c r="EP186" s="12"/>
     </row>
-    <row r="187" s="27" customFormat="1" spans="2:146">
+    <row r="187" spans="2:146" s="27" customFormat="1">
       <c r="B187" s="34" t="s">
         <v>970</v>
       </c>
@@ -43670,7 +43674,7 @@
       <c r="EO187" s="12"/>
       <c r="EP187" s="12"/>
     </row>
-    <row r="188" s="27" customFormat="1" spans="2:146">
+    <row r="188" spans="2:146" s="27" customFormat="1">
       <c r="B188" s="34" t="s">
         <v>970</v>
       </c>
@@ -44093,7 +44097,7 @@
       <c r="EO188" s="12"/>
       <c r="EP188" s="12"/>
     </row>
-    <row r="189" s="27" customFormat="1" spans="2:146">
+    <row r="189" spans="2:146" s="27" customFormat="1">
       <c r="B189" s="34" t="s">
         <v>970</v>
       </c>
@@ -44516,12 +44520,12 @@
       <c r="EO189" s="12"/>
       <c r="EP189" s="12"/>
     </row>
-    <row r="190" s="12" customFormat="1" ht="12"/>
-    <row r="191" s="12" customFormat="1" ht="12"/>
-    <row r="192" s="12" customFormat="1" ht="12"/>
-    <row r="193" s="12" customFormat="1" ht="12"/>
-    <row r="194" s="12" customFormat="1" ht="12"/>
-    <row r="195" s="12" customFormat="1" ht="14.25" spans="1:131">
+    <row r="190" spans="2:146" s="12" customFormat="1" ht="12"/>
+    <row r="191" spans="2:146" s="12" customFormat="1" ht="12"/>
+    <row r="192" spans="2:146" s="12" customFormat="1" ht="12"/>
+    <row r="193" spans="1:131" s="12" customFormat="1" ht="12"/>
+    <row r="194" spans="1:131" s="12" customFormat="1" ht="12"/>
+    <row r="195" spans="1:131" s="12" customFormat="1" ht="14.25">
       <c r="A195" s="47" t="s">
         <v>53</v>
       </c>
@@ -44530,13 +44534,13 @@
       </c>
       <c r="EA195" s="28"/>
     </row>
-    <row r="196" s="12" customFormat="1" ht="12" spans="1:2">
+    <row r="196" spans="1:131" s="12" customFormat="1" ht="12">
       <c r="A196" s="48"/>
       <c r="B196" s="46" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="197" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="197" spans="1:131" s="28" customFormat="1" ht="12.75">
       <c r="B197" s="20" t="s">
         <v>57</v>
       </c>
@@ -44634,7 +44638,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="198" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="198" spans="1:131" s="28" customFormat="1" ht="12.75">
       <c r="B198" s="34">
         <v>1</v>
       </c>
@@ -44732,7 +44736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="199" spans="1:131" s="28" customFormat="1" ht="12.75">
       <c r="B199" s="34">
         <v>2</v>
       </c>
@@ -44830,7 +44834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="200" spans="1:131" s="28" customFormat="1" ht="12.75">
       <c r="B200" s="34">
         <v>101</v>
       </c>
@@ -44928,7 +44932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="201" spans="1:131" s="28" customFormat="1" ht="12.75">
       <c r="B201" s="34">
         <v>102</v>
       </c>
@@ -45026,7 +45030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="202" spans="1:131" s="28" customFormat="1" ht="12.75">
       <c r="B202" s="34">
         <v>103</v>
       </c>
@@ -45124,7 +45128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="203" spans="1:131" s="28" customFormat="1" ht="12.75">
       <c r="B203" s="34">
         <v>104</v>
       </c>
@@ -45222,7 +45226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="204" spans="1:131" s="28" customFormat="1" ht="12.75">
       <c r="B204" s="34">
         <v>105</v>
       </c>
@@ -45320,7 +45324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="205" spans="1:131" s="28" customFormat="1" ht="12.75">
       <c r="B205" s="34">
         <v>106</v>
       </c>
@@ -45418,7 +45422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="206" spans="1:131" s="28" customFormat="1" ht="12.75">
       <c r="B206" s="34">
         <v>107</v>
       </c>
@@ -45516,7 +45520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="207" spans="1:131" s="28" customFormat="1" ht="12.75">
       <c r="B207" s="34">
         <v>108</v>
       </c>
@@ -45614,7 +45618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="208" spans="1:131" s="28" customFormat="1" ht="12.75">
       <c r="B208" s="34">
         <v>109</v>
       </c>
@@ -45712,7 +45716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="209" spans="2:33" s="28" customFormat="1" ht="12.75">
       <c r="B209" s="34">
         <v>110</v>
       </c>
@@ -45810,7 +45814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="210" spans="2:33" s="28" customFormat="1" ht="12.75">
       <c r="B210" s="34">
         <v>111</v>
       </c>
@@ -45908,7 +45912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="211" spans="2:33" s="28" customFormat="1" ht="12.75">
       <c r="B211" s="34">
         <v>112</v>
       </c>
@@ -46006,7 +46010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="212" spans="2:33" s="28" customFormat="1" ht="12.75">
       <c r="B212" s="34">
         <v>113</v>
       </c>
@@ -46104,7 +46108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="213" spans="2:33" s="28" customFormat="1" ht="12.75">
       <c r="B213" s="34">
         <v>114</v>
       </c>
@@ -46202,7 +46206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="214" spans="2:33" s="28" customFormat="1" ht="12.75">
       <c r="B214" s="34">
         <v>115</v>
       </c>
@@ -46300,7 +46304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="215" spans="2:33" s="28" customFormat="1" ht="12.75">
       <c r="B215" s="34">
         <v>116</v>
       </c>
@@ -46398,7 +46402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="216" spans="2:33" s="28" customFormat="1" ht="12.75">
       <c r="B216" s="34">
         <v>117</v>
       </c>
@@ -46496,7 +46500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="217" spans="2:33" s="28" customFormat="1" ht="12.75">
       <c r="B217" s="34">
         <v>118</v>
       </c>
@@ -46594,7 +46598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="218" spans="2:33" s="28" customFormat="1" ht="12.75">
       <c r="B218" s="34">
         <v>119</v>
       </c>
@@ -46692,13 +46696,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" s="12" customFormat="1" ht="12"/>
-    <row r="220" s="12" customFormat="1" ht="12"/>
-    <row r="221" s="12" customFormat="1" ht="12"/>
-    <row r="222" s="12" customFormat="1" ht="12"/>
-    <row r="223" s="12" customFormat="1" ht="12"/>
-    <row r="224" s="12" customFormat="1" ht="12"/>
-    <row r="225" s="12" customFormat="1" ht="14.25" spans="1:2">
+    <row r="219" spans="2:33" s="12" customFormat="1" ht="12"/>
+    <row r="220" spans="2:33" s="12" customFormat="1" ht="12"/>
+    <row r="221" spans="2:33" s="12" customFormat="1" ht="12"/>
+    <row r="222" spans="2:33" s="12" customFormat="1" ht="12"/>
+    <row r="223" spans="2:33" s="12" customFormat="1" ht="12"/>
+    <row r="224" spans="2:33" s="12" customFormat="1" ht="12"/>
+    <row r="225" spans="1:142" s="12" customFormat="1" ht="14.25">
       <c r="A225" s="47" t="s">
         <v>53</v>
       </c>
@@ -46706,13 +46710,13 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="226" s="12" customFormat="1" ht="12" spans="1:2">
+    <row r="226" spans="1:142" s="12" customFormat="1" ht="12">
       <c r="A226" s="48"/>
       <c r="B226" s="46" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="227" s="12" customFormat="1" ht="12" spans="2:28">
+    <row r="227" spans="1:142" s="12" customFormat="1" ht="12">
       <c r="B227" s="20" t="s">
         <v>57</v>
       </c>
@@ -46795,7 +46799,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="228" s="12" customFormat="1" spans="1:142">
+    <row r="228" spans="1:142" s="12" customFormat="1">
       <c r="A228" s="27"/>
       <c r="B228" s="34">
         <v>118</v>
@@ -46993,7 +46997,7 @@
       <c r="EK228" s="27"/>
       <c r="EL228" s="27"/>
     </row>
-    <row r="229" s="12" customFormat="1" spans="1:142">
+    <row r="229" spans="1:142" s="12" customFormat="1">
       <c r="A229" s="27"/>
       <c r="B229" s="34">
         <v>119</v>
@@ -47191,7 +47195,7 @@
       <c r="EK229" s="27"/>
       <c r="EL229" s="27"/>
     </row>
-    <row r="230" s="12" customFormat="1" spans="1:142">
+    <row r="230" spans="1:142" s="12" customFormat="1">
       <c r="A230" s="27"/>
       <c r="B230" s="34">
         <v>120</v>
@@ -47389,7 +47393,7 @@
       <c r="EK230" s="27"/>
       <c r="EL230" s="27"/>
     </row>
-    <row r="231" s="12" customFormat="1" spans="1:142">
+    <row r="231" spans="1:142" s="12" customFormat="1">
       <c r="A231" s="27"/>
       <c r="B231" s="34">
         <v>121</v>
@@ -47587,7 +47591,7 @@
       <c r="EK231" s="27"/>
       <c r="EL231" s="27"/>
     </row>
-    <row r="232" s="12" customFormat="1" spans="1:142">
+    <row r="232" spans="1:142" s="12" customFormat="1">
       <c r="A232" s="27"/>
       <c r="B232" s="34">
         <v>122</v>
@@ -47785,7 +47789,7 @@
       <c r="EK232" s="27"/>
       <c r="EL232" s="27"/>
     </row>
-    <row r="233" s="12" customFormat="1" spans="1:142">
+    <row r="233" spans="1:142" s="12" customFormat="1">
       <c r="A233" s="27"/>
       <c r="B233" s="34">
         <v>123</v>
@@ -47983,7 +47987,7 @@
       <c r="EK233" s="27"/>
       <c r="EL233" s="27"/>
     </row>
-    <row r="234" s="12" customFormat="1" spans="1:142">
+    <row r="234" spans="1:142" s="12" customFormat="1">
       <c r="A234" s="27"/>
       <c r="B234" s="34">
         <v>124</v>
@@ -48181,7 +48185,7 @@
       <c r="EK234" s="27"/>
       <c r="EL234" s="27"/>
     </row>
-    <row r="235" s="12" customFormat="1" spans="1:142">
+    <row r="235" spans="1:142" s="12" customFormat="1">
       <c r="A235" s="27"/>
       <c r="B235" s="34">
         <v>125</v>
@@ -48379,7 +48383,7 @@
       <c r="EK235" s="27"/>
       <c r="EL235" s="27"/>
     </row>
-    <row r="236" s="12" customFormat="1" spans="1:142">
+    <row r="236" spans="1:142" s="12" customFormat="1">
       <c r="A236" s="27"/>
       <c r="B236" s="34">
         <v>126</v>
@@ -48577,7 +48581,7 @@
       <c r="EK236" s="27"/>
       <c r="EL236" s="27"/>
     </row>
-    <row r="237" s="12" customFormat="1" spans="1:142">
+    <row r="237" spans="1:142" s="12" customFormat="1">
       <c r="A237" s="27"/>
       <c r="B237" s="34">
         <v>127</v>
@@ -48775,7 +48779,7 @@
       <c r="EK237" s="27"/>
       <c r="EL237" s="27"/>
     </row>
-    <row r="238" s="12" customFormat="1" spans="1:142">
+    <row r="238" spans="1:142" s="12" customFormat="1">
       <c r="A238" s="27"/>
       <c r="B238" s="34">
         <v>128</v>
@@ -48973,7 +48977,7 @@
       <c r="EK238" s="27"/>
       <c r="EL238" s="27"/>
     </row>
-    <row r="239" s="12" customFormat="1" spans="1:142">
+    <row r="239" spans="1:142" s="12" customFormat="1">
       <c r="A239" s="27"/>
       <c r="B239" s="34">
         <v>129</v>
@@ -49171,7 +49175,7 @@
       <c r="EK239" s="27"/>
       <c r="EL239" s="27"/>
     </row>
-    <row r="240" s="12" customFormat="1" spans="1:142">
+    <row r="240" spans="1:142" s="12" customFormat="1">
       <c r="A240" s="27"/>
       <c r="B240" s="34">
         <v>130</v>
@@ -49369,7 +49373,7 @@
       <c r="EK240" s="27"/>
       <c r="EL240" s="27"/>
     </row>
-    <row r="241" s="12" customFormat="1" spans="1:142">
+    <row r="241" spans="1:142" s="12" customFormat="1">
       <c r="A241" s="27"/>
       <c r="B241" s="34">
         <v>160</v>
@@ -49567,7 +49571,7 @@
       <c r="EK241" s="27"/>
       <c r="EL241" s="27"/>
     </row>
-    <row r="242" s="12" customFormat="1" spans="1:142">
+    <row r="242" spans="1:142" s="12" customFormat="1">
       <c r="A242" s="27"/>
       <c r="B242" s="34">
         <v>161</v>
@@ -49765,7 +49769,7 @@
       <c r="EK242" s="27"/>
       <c r="EL242" s="27"/>
     </row>
-    <row r="243" s="12" customFormat="1" spans="1:142">
+    <row r="243" spans="1:142" s="12" customFormat="1">
       <c r="A243" s="27"/>
       <c r="B243" s="34">
         <v>162</v>
@@ -49963,7 +49967,7 @@
       <c r="EK243" s="27"/>
       <c r="EL243" s="27"/>
     </row>
-    <row r="244" s="12" customFormat="1" spans="1:142">
+    <row r="244" spans="1:142" s="12" customFormat="1">
       <c r="A244" s="27"/>
       <c r="B244" s="34">
         <v>163</v>
@@ -50161,7 +50165,7 @@
       <c r="EK244" s="27"/>
       <c r="EL244" s="27"/>
     </row>
-    <row r="245" s="12" customFormat="1" spans="1:142">
+    <row r="245" spans="1:142" s="12" customFormat="1">
       <c r="A245" s="27"/>
       <c r="B245" s="34">
         <v>164</v>
@@ -50359,7 +50363,7 @@
       <c r="EK245" s="27"/>
       <c r="EL245" s="27"/>
     </row>
-    <row r="246" s="12" customFormat="1" spans="1:142">
+    <row r="246" spans="1:142" s="12" customFormat="1">
       <c r="A246" s="27"/>
       <c r="B246" s="34">
         <v>165</v>
@@ -50557,7 +50561,7 @@
       <c r="EK246" s="27"/>
       <c r="EL246" s="27"/>
     </row>
-    <row r="247" s="12" customFormat="1" spans="1:142">
+    <row r="247" spans="1:142" s="12" customFormat="1">
       <c r="A247" s="27"/>
       <c r="B247" s="34">
         <v>166</v>
@@ -50755,7 +50759,7 @@
       <c r="EK247" s="27"/>
       <c r="EL247" s="27"/>
     </row>
-    <row r="248" s="12" customFormat="1" spans="1:142">
+    <row r="248" spans="1:142" s="12" customFormat="1">
       <c r="A248" s="27"/>
       <c r="B248" s="34">
         <v>167</v>
@@ -50953,12 +50957,12 @@
       <c r="EK248" s="27"/>
       <c r="EL248" s="27"/>
     </row>
-    <row r="249" s="12" customFormat="1" ht="12"/>
-    <row r="250" s="12" customFormat="1" ht="12"/>
-    <row r="251" s="12" customFormat="1" ht="12"/>
-    <row r="252" s="12" customFormat="1" ht="12"/>
-    <row r="253" s="12" customFormat="1" ht="12"/>
-    <row r="254" s="12" customFormat="1" ht="14.25" spans="1:2">
+    <row r="249" spans="1:142" s="12" customFormat="1" ht="12"/>
+    <row r="250" spans="1:142" s="12" customFormat="1" ht="12"/>
+    <row r="251" spans="1:142" s="12" customFormat="1" ht="12"/>
+    <row r="252" spans="1:142" s="12" customFormat="1" ht="12"/>
+    <row r="253" spans="1:142" s="12" customFormat="1" ht="12"/>
+    <row r="254" spans="1:142" s="12" customFormat="1" ht="14.25">
       <c r="A254" s="47" t="s">
         <v>53</v>
       </c>
@@ -50966,12 +50970,12 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="255" s="12" customFormat="1" ht="12" spans="2:2">
+    <row r="255" spans="1:142" s="12" customFormat="1" ht="12">
       <c r="B255" s="46" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="256" s="12" customFormat="1" ht="12" spans="2:10">
+    <row r="256" spans="1:142" s="12" customFormat="1" ht="12">
       <c r="B256" s="20" t="s">
         <v>57</v>
       </c>
@@ -51000,15 +51004,15 @@
         <v>241</v>
       </c>
     </row>
-    <row r="257" s="12" customFormat="1" ht="12" spans="2:10">
+    <row r="257" spans="1:11" s="12" customFormat="1" ht="12">
       <c r="B257" s="34">
         <v>1</v>
       </c>
       <c r="C257" s="51">
-        <v>43147.2854976852</v>
+        <v>43147.285497685203</v>
       </c>
       <c r="D257" s="51">
-        <v>43147.2854976852</v>
+        <v>43147.285497685203</v>
       </c>
       <c r="E257" s="34">
         <v>0</v>
@@ -51029,11 +51033,11 @@
         <v>181</v>
       </c>
     </row>
-    <row r="258" s="12" customFormat="1" ht="12"/>
-    <row r="259" s="12" customFormat="1" ht="12"/>
-    <row r="260" s="12" customFormat="1" ht="12"/>
-    <row r="261" s="12" customFormat="1" ht="12"/>
-    <row r="262" s="12" customFormat="1" ht="14.25" spans="1:2">
+    <row r="258" spans="1:11" s="12" customFormat="1" ht="12"/>
+    <row r="259" spans="1:11" s="12" customFormat="1" ht="12"/>
+    <row r="260" spans="1:11" s="12" customFormat="1" ht="12"/>
+    <row r="261" spans="1:11" s="12" customFormat="1" ht="12"/>
+    <row r="262" spans="1:11" s="12" customFormat="1" ht="14.25">
       <c r="A262" s="47" t="s">
         <v>53</v>
       </c>
@@ -51041,12 +51045,12 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="263" s="12" customFormat="1" ht="12" spans="2:2">
+    <row r="263" spans="1:11" s="12" customFormat="1" ht="12">
       <c r="B263" s="46" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="264" s="12" customFormat="1" ht="12" spans="2:11">
+    <row r="264" spans="1:11" s="12" customFormat="1" ht="12">
       <c r="B264" s="20" t="s">
         <v>57</v>
       </c>
@@ -51078,15 +51082,15 @@
         <v>241</v>
       </c>
     </row>
-    <row r="265" s="12" customFormat="1" ht="12" spans="2:11">
+    <row r="265" spans="1:11" s="12" customFormat="1" ht="12">
       <c r="B265" s="34">
         <v>1</v>
       </c>
       <c r="C265" s="51">
-        <v>43197.2650925926</v>
+        <v>43197.265092592599</v>
       </c>
       <c r="D265" s="51">
-        <v>43197.2650925926</v>
+        <v>43197.265092592599</v>
       </c>
       <c r="E265" s="34">
         <v>0</v>
@@ -51110,15 +51114,15 @@
         <v>169</v>
       </c>
     </row>
-    <row r="266" s="12" customFormat="1" ht="12" spans="2:11">
+    <row r="266" spans="1:11" s="12" customFormat="1" ht="12">
       <c r="B266" s="34">
         <v>2</v>
       </c>
       <c r="C266" s="51">
-        <v>43197.2650925926</v>
+        <v>43197.265092592599</v>
       </c>
       <c r="D266" s="51">
-        <v>43197.2650925926</v>
+        <v>43197.265092592599</v>
       </c>
       <c r="E266" s="34">
         <v>0</v>
@@ -51142,15 +51146,15 @@
         <v>181</v>
       </c>
     </row>
-    <row r="267" s="12" customFormat="1" ht="12" spans="2:11">
+    <row r="267" spans="1:11" s="12" customFormat="1" ht="12">
       <c r="B267" s="34">
         <v>3</v>
       </c>
       <c r="C267" s="51">
-        <v>43206.5345486111</v>
+        <v>43206.534548611096</v>
       </c>
       <c r="D267" s="51">
-        <v>43218.3041666667</v>
+        <v>43218.304166666698</v>
       </c>
       <c r="E267" s="34">
         <v>0</v>
@@ -51174,15 +51178,15 @@
         <v>189</v>
       </c>
     </row>
-    <row r="268" s="12" customFormat="1" ht="12" spans="2:11">
+    <row r="268" spans="1:11" s="12" customFormat="1" ht="12">
       <c r="B268" s="34">
         <v>4</v>
       </c>
       <c r="C268" s="51">
-        <v>43218.3041666667</v>
+        <v>43218.304166666698</v>
       </c>
       <c r="D268" s="51">
-        <v>43218.3041666667</v>
+        <v>43218.304166666698</v>
       </c>
       <c r="E268" s="34">
         <v>0</v>
@@ -51206,13 +51210,13 @@
         <v>194</v>
       </c>
     </row>
-    <row r="269" s="12" customFormat="1" ht="12"/>
-    <row r="270" s="12" customFormat="1" ht="12"/>
-    <row r="271" s="12" customFormat="1" ht="12.75" spans="3:4">
+    <row r="269" spans="1:11" s="12" customFormat="1" ht="12"/>
+    <row r="270" spans="1:11" s="12" customFormat="1" ht="12"/>
+    <row r="271" spans="1:11" s="12" customFormat="1" ht="12.75">
       <c r="C271" s="52"/>
       <c r="D271" s="52"/>
     </row>
-    <row r="272" s="12" customFormat="1" ht="14.25" spans="1:2">
+    <row r="272" spans="1:11" s="12" customFormat="1" ht="14.25">
       <c r="A272" s="47" t="s">
         <v>53</v>
       </c>
@@ -51220,14 +51224,14 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="273" s="12" customFormat="1" ht="12.75" spans="2:4">
+    <row r="273" spans="2:13" s="12" customFormat="1" ht="12.75">
       <c r="B273" s="46" t="s">
         <v>1097</v>
       </c>
       <c r="C273" s="52"/>
       <c r="D273" s="52"/>
     </row>
-    <row r="274" s="12" customFormat="1" ht="12" spans="2:13">
+    <row r="274" spans="2:13" s="12" customFormat="1" ht="12">
       <c r="B274" s="20" t="s">
         <v>57</v>
       </c>
@@ -51265,15 +51269,15 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="275" s="12" customFormat="1" ht="12" spans="2:13">
+    <row r="275" spans="2:13" s="12" customFormat="1" ht="12">
       <c r="B275" s="34">
         <v>28</v>
       </c>
       <c r="C275" s="51">
-        <v>43229.3970601852</v>
+        <v>43229.397060185198</v>
       </c>
       <c r="D275" s="51">
-        <v>43229.3985069444</v>
+        <v>43229.398506944402</v>
       </c>
       <c r="E275" s="34">
         <v>0</v>
@@ -51303,15 +51307,15 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="276" s="12" customFormat="1" ht="12" spans="2:13">
+    <row r="276" spans="2:13" s="12" customFormat="1" ht="12">
       <c r="B276" s="34">
         <v>29</v>
       </c>
       <c r="C276" s="51">
-        <v>43229.3970601852</v>
+        <v>43229.397060185198</v>
       </c>
       <c r="D276" s="51">
-        <v>43234.1663425926</v>
+        <v>43234.166342592602</v>
       </c>
       <c r="E276" s="34">
         <v>0</v>
@@ -51341,15 +51345,15 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="277" s="12" customFormat="1" ht="12" spans="2:13">
+    <row r="277" spans="2:13" s="12" customFormat="1" ht="12">
       <c r="B277" s="34">
         <v>30</v>
       </c>
       <c r="C277" s="51">
-        <v>43229.3970601852</v>
+        <v>43229.397060185198</v>
       </c>
       <c r="D277" s="51">
-        <v>43234.1663425926</v>
+        <v>43234.166342592602</v>
       </c>
       <c r="E277" s="34">
         <v>0</v>
@@ -51379,15 +51383,15 @@
         <v>3333</v>
       </c>
     </row>
-    <row r="278" s="12" customFormat="1" ht="12" spans="2:13">
+    <row r="278" spans="2:13" s="12" customFormat="1" ht="12">
       <c r="B278" s="34">
         <v>31</v>
       </c>
       <c r="C278" s="51">
-        <v>43229.4134953704</v>
+        <v>43229.413495370398</v>
       </c>
       <c r="D278" s="51">
-        <v>43229.4134953704</v>
+        <v>43229.413495370398</v>
       </c>
       <c r="E278" s="34">
         <v>0</v>
@@ -51417,12 +51421,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="279" s="12" customFormat="1" ht="12" spans="2:13">
+    <row r="279" spans="2:13" s="12" customFormat="1" ht="12">
       <c r="B279" s="34">
         <v>32</v>
       </c>
       <c r="C279" s="51">
-        <v>43230.2953819444</v>
+        <v>43230.295381944401</v>
       </c>
       <c r="D279" s="51">
         <v>43230.2957523148</v>
@@ -51455,7 +51459,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="280" s="12" customFormat="1" ht="12" spans="2:13">
+    <row r="280" spans="2:13" s="12" customFormat="1" ht="12">
       <c r="B280" s="34">
         <v>33</v>
       </c>
@@ -51493,15 +51497,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="281" s="12" customFormat="1" ht="12" spans="2:13">
+    <row r="281" spans="2:13" s="12" customFormat="1" ht="12">
       <c r="B281" s="34">
         <v>34</v>
       </c>
       <c r="C281" s="51">
-        <v>43235.0934722222</v>
+        <v>43235.093472222201</v>
       </c>
       <c r="D281" s="51">
-        <v>43235.0934722222</v>
+        <v>43235.093472222201</v>
       </c>
       <c r="E281" s="34">
         <v>0</v>
@@ -51531,15 +51535,15 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="282" s="12" customFormat="1" ht="12" spans="2:13">
+    <row r="282" spans="2:13" s="12" customFormat="1" ht="12">
       <c r="B282" s="34">
         <v>35</v>
       </c>
       <c r="C282" s="51">
-        <v>43241.340474537</v>
+        <v>43241.340474536999</v>
       </c>
       <c r="D282" s="51">
-        <v>43241.340474537</v>
+        <v>43241.340474536999</v>
       </c>
       <c r="E282" s="34">
         <v>0</v>
@@ -51569,15 +51573,15 @@
         <v>12345</v>
       </c>
     </row>
-    <row r="283" s="12" customFormat="1" ht="12" spans="2:13">
+    <row r="283" spans="2:13" s="12" customFormat="1" ht="12">
       <c r="B283" s="34">
         <v>36</v>
       </c>
       <c r="C283" s="51">
-        <v>43241.340474537</v>
+        <v>43241.340474536999</v>
       </c>
       <c r="D283" s="51">
-        <v>43241.340474537</v>
+        <v>43241.340474536999</v>
       </c>
       <c r="E283" s="34">
         <v>0</v>
@@ -51607,15 +51611,15 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="284" s="12" customFormat="1" ht="12" spans="2:13">
+    <row r="284" spans="2:13" s="12" customFormat="1" ht="12">
       <c r="B284" s="34">
         <v>37</v>
       </c>
       <c r="C284" s="51">
-        <v>43241.3497337963</v>
+        <v>43241.349733796298</v>
       </c>
       <c r="D284" s="51">
-        <v>43241.3531018519</v>
+        <v>43241.353101851899</v>
       </c>
       <c r="E284" s="34">
         <v>0</v>
@@ -51645,15 +51649,15 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="285" s="12" customFormat="1" ht="12" spans="2:13">
+    <row r="285" spans="2:13" s="12" customFormat="1" ht="12">
       <c r="B285" s="34">
         <v>38</v>
       </c>
       <c r="C285" s="51">
-        <v>43241.3497337963</v>
+        <v>43241.349733796298</v>
       </c>
       <c r="D285" s="51">
-        <v>43241.3531018519</v>
+        <v>43241.353101851899</v>
       </c>
       <c r="E285" s="34">
         <v>0</v>
@@ -51683,15 +51687,15 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="286" s="12" customFormat="1" ht="12" spans="2:13">
+    <row r="286" spans="2:13" s="12" customFormat="1" ht="12">
       <c r="B286" s="34">
         <v>39</v>
       </c>
       <c r="C286" s="51">
-        <v>43241.3531018519</v>
+        <v>43241.353101851899</v>
       </c>
       <c r="D286" s="51">
-        <v>43241.3531018519</v>
+        <v>43241.353101851899</v>
       </c>
       <c r="E286" s="34">
         <v>0</v>
@@ -51721,7 +51725,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="287" s="12" customFormat="1" ht="12" spans="2:13">
+    <row r="287" spans="2:13" s="12" customFormat="1" ht="12">
       <c r="B287" s="34">
         <v>40</v>
       </c>
@@ -51759,7 +51763,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="288" s="12" customFormat="1" ht="12" spans="2:13">
+    <row r="288" spans="2:13" s="12" customFormat="1" ht="12">
       <c r="B288" s="34">
         <v>41</v>
       </c>
@@ -51797,15 +51801,15 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="289" s="12" customFormat="1" ht="12" spans="2:13">
+    <row r="289" spans="2:13" s="12" customFormat="1" ht="12">
       <c r="B289" s="34">
         <v>42</v>
       </c>
       <c r="C289" s="51">
-        <v>43241.3817708333</v>
+        <v>43241.381770833301</v>
       </c>
       <c r="D289" s="51">
-        <v>43241.3817708333</v>
+        <v>43241.381770833301</v>
       </c>
       <c r="E289" s="34">
         <v>0</v>
@@ -51835,15 +51839,15 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="290" s="12" customFormat="1" ht="12" spans="2:13">
+    <row r="290" spans="2:13" s="12" customFormat="1" ht="12">
       <c r="B290" s="34">
         <v>43</v>
       </c>
       <c r="C290" s="51">
-        <v>43241.3817708333</v>
+        <v>43241.381770833301</v>
       </c>
       <c r="D290" s="51">
-        <v>43241.3817708333</v>
+        <v>43241.381770833301</v>
       </c>
       <c r="E290" s="34">
         <v>0</v>
@@ -51873,509 +51877,508 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="291" s="12" customFormat="1" ht="12"/>
+    <row r="291" spans="2:13" s="12" customFormat="1" ht="12"/>
   </sheetData>
+  <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="B128">
-    <cfRule type="cellIs" dxfId="0" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="93" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B168:E168">
-    <cfRule type="cellIs" dxfId="0" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="77" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F168">
-    <cfRule type="cellIs" dxfId="0" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="78" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G168">
-    <cfRule type="cellIs" dxfId="0" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="76" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H168:L168">
-    <cfRule type="cellIs" dxfId="0" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="75" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M168:EK168">
-    <cfRule type="cellIs" dxfId="0" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="67" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EL168">
-    <cfRule type="cellIs" dxfId="0" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="68" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EM168">
-    <cfRule type="cellIs" dxfId="0" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="69" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EN168">
-    <cfRule type="cellIs" dxfId="0" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="70" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EO168">
-    <cfRule type="cellIs" dxfId="0" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="71" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EP168">
-    <cfRule type="cellIs" dxfId="0" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="72" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EQ168">
-    <cfRule type="cellIs" dxfId="0" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="73" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="ER168">
-    <cfRule type="cellIs" dxfId="0" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="74" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EM196">
-    <cfRule type="cellIs" dxfId="0" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="62" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B197">
-    <cfRule type="cellIs" dxfId="0" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="82" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C197:AG197">
-    <cfRule type="cellIs" dxfId="0" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="81" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U198">
-    <cfRule type="cellIs" dxfId="0" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="38" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA198">
-    <cfRule type="cellIs" dxfId="0" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="37" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U199">
-    <cfRule type="cellIs" dxfId="0" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="34" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B227">
-    <cfRule type="cellIs" dxfId="0" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="92" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C227:AA227">
-    <cfRule type="cellIs" dxfId="0" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="91" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB227">
-    <cfRule type="cellIs" dxfId="0" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="33" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A254">
-    <cfRule type="cellIs" dxfId="0" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="31" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B255">
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="29" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B256">
-    <cfRule type="cellIs" dxfId="0" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="27" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C256:J256">
-    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="25" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F257">
-    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="19" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I257">
-    <cfRule type="cellIs" dxfId="0" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="18" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J257">
-    <cfRule type="cellIs" dxfId="0" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="20" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A262">
-    <cfRule type="cellIs" dxfId="0" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="30" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B263">
-    <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="28" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B264">
-    <cfRule type="cellIs" dxfId="0" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="26" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C264:K264">
-    <cfRule type="cellIs" dxfId="0" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="24" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A272">
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="14" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="13" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="12" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C274:M274">
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="11" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L275">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="4" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L276">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="3" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L277">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="2" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F198:F216">
-    <cfRule type="cellIs" dxfId="0" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="60" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F217:F218">
-    <cfRule type="cellIs" dxfId="0" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F265:F268">
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="17" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F275:F290">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="8" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I198:I216">
-    <cfRule type="cellIs" dxfId="0" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I217:I218">
-    <cfRule type="cellIs" dxfId="0" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="57" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I265:I266">
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="16" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I275:I290">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="9" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J275:J290">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="1" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K265:K268">
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="21" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K275:K277">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="7" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K279:K283">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="6" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K285:K290">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="5" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L228:L248">
-    <cfRule type="cellIs" dxfId="0" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="35" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M228:M235">
-    <cfRule type="cellIs" dxfId="0" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="88" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M236:M243">
-    <cfRule type="cellIs" dxfId="0" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="87" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M244:M248">
-    <cfRule type="cellIs" dxfId="0" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="86" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N228:N243">
-    <cfRule type="cellIs" dxfId="0" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="85" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N244:N248">
-    <cfRule type="cellIs" dxfId="0" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="84" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O198:O216">
-    <cfRule type="cellIs" dxfId="0" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="56" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O217:O218">
-    <cfRule type="cellIs" dxfId="0" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="55" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P198:P216">
-    <cfRule type="cellIs" dxfId="0" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="54" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P217:P218">
-    <cfRule type="cellIs" dxfId="0" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="53" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q198:Q216">
-    <cfRule type="cellIs" dxfId="0" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="52" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q217:Q218">
-    <cfRule type="cellIs" dxfId="0" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="51" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R198:R216">
-    <cfRule type="cellIs" dxfId="0" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="50" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R217:R218">
-    <cfRule type="cellIs" dxfId="0" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="49" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S198:S218">
-    <cfRule type="cellIs" dxfId="0" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T198:T216">
-    <cfRule type="cellIs" dxfId="0" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="48" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T217:T218">
-    <cfRule type="cellIs" dxfId="0" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="47" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U200:U216">
-    <cfRule type="cellIs" dxfId="0" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="40" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U217:U218">
-    <cfRule type="cellIs" dxfId="0" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="39" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U228:U248">
-    <cfRule type="cellIs" dxfId="0" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="61" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA200:AA216">
-    <cfRule type="cellIs" dxfId="0" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="42" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA217:AA218">
-    <cfRule type="cellIs" dxfId="0" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="41" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB228:AB248">
-    <cfRule type="cellIs" dxfId="0" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="32" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="$A1:$XFD64 $A292:$XFD1048576">
-    <cfRule type="cellIs" dxfId="1" priority="97" operator="equal">
+  <conditionalFormatting sqref="A1:XFD64 A292:XFD1048576">
+    <cfRule type="cellIs" dxfId="26" priority="97" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="$A65:$XFD80 $A89:$XFD127 A128 C128:XFD128 $A129:$XFD165 C166:XFD166 EQ173:XFD176 EM190 ES190:XFD190 EM191:XFD195 EN196:XFD196 EM219:XFD251 A249:EL251 C225:EL226 AC227:EL227 A224:EL224 $A252:$XFD253 B254:XFD254 A255:A257 C255:XFD255 K256:XFD257 $A258:$XFD261 B262:XFD262 A263:A268 C263:XFD263 L264:XFD268 A274:A290 E271:XFD271 A271:B271 N274:XFD290 $A269:$XFD270 C272:XFD272 E273:XFD273 $A291:$XFD291">
-    <cfRule type="cellIs" dxfId="0" priority="96" operator="equal">
+  <conditionalFormatting sqref="A65:XFD80 A89:XFD127 A128 C128:XFD128 A129:XFD165 C166:XFD166 EQ173:XFD176 EM190 ES190:XFD190 EM191:XFD195 EN196:XFD196 EM219:XFD251 A249:EL251 C225:EL226 AC227:EL227 A224:EL224 A252:XFD253 B254:XFD254 A255:A257 C255:XFD255 K256:XFD257 A258:XFD261 B262:XFD262 A263:A268 C263:XFD263 L264:XFD268 A274:A290 E271:XFD271 A271:B271 N274:XFD290 A269:XFD270 C272:XFD272 E273:XFD273 A291:XFD291">
+    <cfRule type="cellIs" dxfId="25" priority="96" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81:BV88">
-    <cfRule type="cellIs" dxfId="0" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="94" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IF81:XFD88">
-    <cfRule type="cellIs" dxfId="0" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="95" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A166:B167">
-    <cfRule type="cellIs" dxfId="0" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="83" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B169:EK189">
-    <cfRule type="cellIs" dxfId="0" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="64" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EN190:ER190 EL169:EP189">
-    <cfRule type="cellIs" dxfId="0" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="63" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A195:B196">
-    <cfRule type="cellIs" dxfId="0" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="79" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B218 AG198:AG218 E198:E218 AA199 G198:H218 J198:N218">
-    <cfRule type="cellIs" dxfId="0" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="80" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C198:D216">
-    <cfRule type="cellIs" dxfId="0" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="66" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V198:Z216">
-    <cfRule type="cellIs" dxfId="0" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="46" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB198:AF216">
-    <cfRule type="cellIs" dxfId="0" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="44" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C217:D218">
-    <cfRule type="cellIs" dxfId="0" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="65" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V217:Z218">
-    <cfRule type="cellIs" dxfId="0" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="45" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB217:AF218">
-    <cfRule type="cellIs" dxfId="0" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="43" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A225:B226">
-    <cfRule type="cellIs" dxfId="0" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="89" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B228:F248 V228:AA248 O228:T248">
-    <cfRule type="cellIs" dxfId="0" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="90" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B257:E257 G257:H257">
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="23" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B265:E268 G265:H266 J265:J266 G267:J268">
-    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="22" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B272 A273">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L285:M290 K284:M284 L279:M283 K278:M278 M275:M277 G275:H290 B275:E290">
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.875" customWidth="1"/>
     <col min="2" max="2" width="20.25" customWidth="1"/>
@@ -52383,72 +52386,63 @@
     <col min="4" max="4" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="1" spans="1:3" ht="14.25">
       <c r="A1" s="24" t="s">
         <v>1116</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>1117</v>
       </c>
-      <c r="C1" s="23"/>
     </row>
-    <row r="2" customFormat="1" spans="1:3">
+    <row r="2" spans="1:3">
       <c r="A2" s="23"/>
       <c r="B2" s="12"/>
-      <c r="C2" s="23"/>
     </row>
-    <row r="3" customFormat="1" spans="1:3">
+    <row r="3" spans="1:3">
       <c r="A3" s="23"/>
       <c r="B3" s="12"/>
-      <c r="C3" s="23"/>
     </row>
-    <row r="5" customFormat="1" ht="14.25" spans="1:3">
+    <row r="5" spans="1:3" ht="14.25">
       <c r="A5" s="24" t="s">
         <v>1118</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>1119</v>
       </c>
-      <c r="C5" s="23"/>
     </row>
-    <row r="6" customFormat="1" ht="14.25" spans="1:3">
+    <row r="6" spans="1:3" ht="14.25">
       <c r="A6" s="24" t="s">
         <v>1118</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>1120</v>
       </c>
-      <c r="C6" s="23"/>
     </row>
-    <row r="7" customFormat="1" spans="1:3">
+    <row r="7" spans="1:3">
       <c r="A7" s="23"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="23"/>
     </row>
-    <row r="8" customFormat="1" spans="1:3">
+    <row r="8" spans="1:3">
       <c r="A8" s="23"/>
       <c r="B8" s="12"/>
-      <c r="C8" s="23"/>
     </row>
-    <row r="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="9" spans="1:3" ht="14.25">
       <c r="A9" s="24" t="s">
         <v>1118</v>
       </c>
       <c r="B9" t="s">
         <v>1121</v>
       </c>
-      <c r="C9" s="23"/>
     </row>
-    <row r="10" customFormat="1" ht="14.25" spans="1:3">
+    <row r="10" spans="1:3" ht="14.25">
       <c r="A10" s="24" t="s">
         <v>1122</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>1123</v>
       </c>
-      <c r="C10" s="23"/>
     </row>
-    <row r="11" customFormat="1" ht="14.25" spans="1:3">
+    <row r="11" spans="1:3" ht="14.25">
       <c r="A11" s="24" t="s">
         <v>1124</v>
       </c>
@@ -52459,31 +52453,32 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="14.25" spans="1:3">
+    <row r="12" spans="1:3" ht="14.25">
       <c r="A12" s="24" t="s">
         <v>1118</v>
       </c>
       <c r="B12" t="s">
         <v>1127</v>
       </c>
-      <c r="C12" s="23"/>
     </row>
-    <row r="13" customFormat="1" ht="14.25" spans="1:3">
+    <row r="13" spans="1:3" ht="14.25">
       <c r="A13" s="24" t="s">
         <v>1128</v>
       </c>
-      <c r="C13" s="23"/>
     </row>
-    <row r="14" customFormat="1" ht="14.25" spans="1:2">
+    <row r="14" spans="1:3" ht="14.25">
       <c r="A14" s="24" t="s">
         <v>1122</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>1129</v>
       </c>
+      <c r="C14"/>
     </row>
-    <row r="15" customFormat="1"/>
-    <row r="16" ht="14.25" spans="1:3">
+    <row r="15" spans="1:3">
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:3" ht="14.25">
       <c r="A16" s="24" t="s">
         <v>1116</v>
       </c>
@@ -52492,10 +52487,10 @@
       </c>
       <c r="C16"/>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="1:3">
       <c r="C17"/>
     </row>
-    <row r="18" customFormat="1" ht="14.25" spans="1:3">
+    <row r="18" spans="1:3" ht="14.25">
       <c r="A18" s="24" t="s">
         <v>1124</v>
       </c>
@@ -52506,42 +52501,44 @@
         <v>552</v>
       </c>
     </row>
-    <row r="19" customFormat="1" ht="14.25" spans="1:3">
+    <row r="19" spans="1:3" ht="14.25">
       <c r="A19" s="24" t="s">
         <v>1118</v>
       </c>
       <c r="B19" t="s">
         <v>1127</v>
       </c>
-      <c r="C19" s="23"/>
     </row>
-    <row r="20" customFormat="1" ht="14.25" spans="1:3">
+    <row r="20" spans="1:3" ht="14.25">
       <c r="A20" s="24" t="s">
         <v>1128</v>
       </c>
-      <c r="C20" s="23"/>
     </row>
-    <row r="21" customFormat="1" ht="14.25" spans="1:2">
+    <row r="21" spans="1:3" ht="14.25">
       <c r="A21" s="24" t="s">
         <v>1122</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>1129</v>
       </c>
+      <c r="C21"/>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="1:3">
       <c r="C22"/>
     </row>
-    <row r="23" customFormat="1" ht="14.25" spans="1:2">
+    <row r="23" spans="1:3" ht="14.25">
       <c r="A23" s="24" t="s">
         <v>1116</v>
       </c>
       <c r="B23" t="s">
         <v>1130</v>
       </c>
+      <c r="C23"/>
     </row>
-    <row r="24" customFormat="1"/>
-    <row r="25" customFormat="1" ht="14.25" spans="1:3">
+    <row r="24" spans="1:3">
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="1:3" ht="14.25">
       <c r="A25" s="24" t="s">
         <v>1124</v>
       </c>
@@ -52552,42 +52549,44 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="26" customFormat="1" ht="14.25" spans="1:3">
+    <row r="26" spans="1:3" ht="14.25">
       <c r="A26" s="24" t="s">
         <v>1118</v>
       </c>
       <c r="B26" t="s">
         <v>1127</v>
       </c>
-      <c r="C26" s="23"/>
     </row>
-    <row r="27" customFormat="1" ht="14.25" spans="1:3">
+    <row r="27" spans="1:3" ht="14.25">
       <c r="A27" s="24" t="s">
         <v>1128</v>
       </c>
-      <c r="C27" s="23"/>
     </row>
-    <row r="28" customFormat="1" ht="14.25" spans="1:2">
+    <row r="28" spans="1:3" ht="14.25">
       <c r="A28" s="24" t="s">
         <v>1122</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>1129</v>
       </c>
+      <c r="C28"/>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="1:3">
       <c r="C29"/>
     </row>
-    <row r="31" customFormat="1" ht="14.25" spans="1:2">
+    <row r="31" spans="1:3" ht="14.25">
       <c r="A31" s="24" t="s">
         <v>1116</v>
       </c>
       <c r="B31" t="s">
         <v>1130</v>
       </c>
+      <c r="C31"/>
     </row>
-    <row r="32" customFormat="1"/>
-    <row r="33" customFormat="1" ht="14.25" spans="1:3">
+    <row r="32" spans="1:3">
+      <c r="C32"/>
+    </row>
+    <row r="33" spans="1:3" ht="14.25">
       <c r="A33" s="24" t="s">
         <v>1124</v>
       </c>
@@ -52598,31 +52597,32 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="34" customFormat="1" ht="14.25" spans="1:3">
+    <row r="34" spans="1:3" ht="14.25">
       <c r="A34" s="24" t="s">
         <v>1118</v>
       </c>
       <c r="B34" t="s">
         <v>1127</v>
       </c>
-      <c r="C34" s="23"/>
     </row>
-    <row r="35" customFormat="1" ht="14.25" spans="1:3">
+    <row r="35" spans="1:3" ht="14.25">
       <c r="A35" s="24" t="s">
         <v>1128</v>
       </c>
-      <c r="C35" s="23"/>
     </row>
-    <row r="36" customFormat="1" ht="14.25" spans="1:2">
+    <row r="36" spans="1:3" ht="14.25">
       <c r="A36" s="24" t="s">
         <v>1122</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>1131</v>
       </c>
+      <c r="C36"/>
     </row>
-    <row r="37" customFormat="1"/>
-    <row r="38" ht="14.25" spans="1:2">
+    <row r="37" spans="1:3">
+      <c r="C37"/>
+    </row>
+    <row r="38" spans="1:3" ht="14.25">
       <c r="A38" s="24" t="s">
         <v>1116</v>
       </c>
@@ -52630,12 +52630,12 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="1:1">
+    <row r="39" spans="1:3" ht="14.25">
       <c r="A39" s="24" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="40" ht="14.25" spans="1:2">
+    <row r="40" spans="1:3" ht="14.25">
       <c r="A40" s="24" t="s">
         <v>1118</v>
       </c>
@@ -52643,7 +52643,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="42" ht="14.25" spans="1:2">
+    <row r="42" spans="1:3" ht="14.25">
       <c r="A42" s="24" t="s">
         <v>1122</v>
       </c>
@@ -52651,20 +52651,21 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="45" customFormat="1" ht="14.25" spans="1:2">
+    <row r="45" spans="1:3" ht="14.25">
       <c r="A45" s="24" t="s">
         <v>1116</v>
       </c>
       <c r="B45" t="s">
         <v>1130</v>
       </c>
+      <c r="C45"/>
     </row>
-    <row r="46" ht="14.25" spans="1:1">
+    <row r="46" spans="1:3" ht="14.25">
       <c r="A46" s="24" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="47" ht="14.25" spans="1:2">
+    <row r="47" spans="1:3" ht="14.25">
       <c r="A47" s="24" t="s">
         <v>1118</v>
       </c>
@@ -52672,7 +52673,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="50" ht="14.25" spans="1:2">
+    <row r="50" spans="1:2" ht="14.25">
       <c r="A50" s="24" t="s">
         <v>1122</v>
       </c>
@@ -52681,23 +52682,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="32" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" display="010" tooltip="http://127.0.0.1:8000/contract/contractor/4/detail/"/>
-    <hyperlink ref="C33" r:id="rId1" display="契約者０１５" tooltip="http://127.0.0.1:8000/contract/contractor/4/detail/"/>
-    <hyperlink ref="C25" r:id="rId1" display="16" tooltip="http://127.0.0.1:8000/contract/contractor/4/detail/"/>
+    <hyperlink ref="C11" r:id="rId1" tooltip="http://127.0.0.1:8000/contract/contractor/4/detail/"/>
+    <hyperlink ref="C33" r:id="rId2" tooltip="http://127.0.0.1:8000/contract/contractor/4/detail/"/>
+    <hyperlink ref="C25" r:id="rId3" tooltip="http://127.0.0.1:8000/contract/contractor/4/detail/"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:EL26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="P1" workbookViewId="0">
+    <sheetView topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Y36" sqref="Y36"/>
     </sheetView>
   </sheetViews>
@@ -52723,7 +52723,7 @@
     <col min="19" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="1" ht="14.25" spans="1:8">
+    <row r="2" spans="1:142" customFormat="1" ht="14.25">
       <c r="A2" s="14" t="s">
         <v>53</v>
       </c>
@@ -52737,7 +52737,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" customFormat="1" ht="13.5" spans="1:8">
+    <row r="3" spans="1:142" customFormat="1" ht="13.5">
       <c r="A3" s="12"/>
       <c r="B3" s="16" t="s">
         <v>1136</v>
@@ -52749,7 +52749,7 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" customFormat="1" ht="13.5" spans="1:142">
+    <row r="4" spans="1:142" customFormat="1" ht="13.5">
       <c r="A4" s="12"/>
       <c r="B4" s="18" t="s">
         <v>58</v>
@@ -53175,7 +53175,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="13.5" spans="1:142">
+    <row r="5" spans="1:142" customFormat="1" ht="13.5">
       <c r="A5" s="12"/>
       <c r="B5" s="21" t="s">
         <v>1137</v>
@@ -53601,7 +53601,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="13.5" spans="1:142">
+    <row r="6" spans="1:142" customFormat="1" ht="13.5">
       <c r="A6" s="12"/>
       <c r="B6" s="21" t="s">
         <v>1138</v>
@@ -54027,7 +54027,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="13.5" spans="1:142">
+    <row r="7" spans="1:142" customFormat="1" ht="13.5">
       <c r="A7" s="12"/>
       <c r="B7" s="21" t="s">
         <v>1139</v>
@@ -54453,7 +54453,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="13.5" spans="1:142">
+    <row r="8" spans="1:142" customFormat="1" ht="13.5">
       <c r="A8" s="12"/>
       <c r="B8" s="21" t="s">
         <v>1140</v>
@@ -54879,7 +54879,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="2:142">
+    <row r="9" spans="1:142">
       <c r="B9" s="21" t="s">
         <v>1141</v>
       </c>
@@ -55304,7 +55304,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="2:142">
+    <row r="10" spans="1:142">
       <c r="B10" s="21" t="s">
         <v>1142</v>
       </c>
@@ -55729,7 +55729,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="2:142">
+    <row r="11" spans="1:142">
       <c r="B11" s="21" t="s">
         <v>1143</v>
       </c>
@@ -56154,7 +56154,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="2:142">
+    <row r="12" spans="1:142">
       <c r="B12" s="21" t="s">
         <v>1144</v>
       </c>
@@ -56579,7 +56579,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="2:142">
+    <row r="13" spans="1:142">
       <c r="B13" s="21" t="s">
         <v>1137</v>
       </c>
@@ -57004,7 +57004,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="2:142">
+    <row r="14" spans="1:142">
       <c r="B14" s="21" t="s">
         <v>1138</v>
       </c>
@@ -57429,7 +57429,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="2:142">
+    <row r="15" spans="1:142">
       <c r="B15" s="21" t="s">
         <v>1139</v>
       </c>
@@ -57854,7 +57854,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="2:142">
+    <row r="16" spans="1:142">
       <c r="B16" s="21" t="s">
         <v>1140</v>
       </c>
@@ -62104,28 +62104,29 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:142">
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="$A1:$XFD1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="$A2:$XFD4 A5:A8 EM5:XFD8">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+  <conditionalFormatting sqref="A2:XFD4 A5:A8 EM5:XFD8">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C10 B11:C12">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -62135,19 +62136,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:C25">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:CC70"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -62164,11 +62163,11 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="11:12">
+    <row r="2" spans="1:81">
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="4" spans="2:81">
+    <row r="4" spans="1:81">
       <c r="B4" s="3" t="s">
         <v>1145</v>
       </c>
@@ -62199,7 +62198,7 @@
       <c r="CB4" s="9"/>
       <c r="CC4" s="9"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="2:81">
+    <row r="5" spans="1:81">
       <c r="B5" s="8" t="s">
         <v>1150</v>
       </c>
@@ -62284,7 +62283,7 @@
       <c r="CB5" s="9"/>
       <c r="CC5" s="9"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="2:81">
+    <row r="6" spans="1:81">
       <c r="B6" s="8" t="s">
         <v>1155</v>
       </c>
@@ -62360,7 +62359,7 @@
       <c r="CB6" s="9"/>
       <c r="CC6" s="9"/>
     </row>
-    <row r="7" spans="2:81">
+    <row r="7" spans="1:81">
       <c r="B7" s="8" t="s">
         <v>1156</v>
       </c>
@@ -62433,7 +62432,7 @@
       <c r="CB7" s="9"/>
       <c r="CC7" s="9"/>
     </row>
-    <row r="8" spans="2:81">
+    <row r="8" spans="1:81">
       <c r="B8" s="8" t="s">
         <v>1157</v>
       </c>
@@ -62506,7 +62505,7 @@
       <c r="CB8" s="9"/>
       <c r="CC8" s="9"/>
     </row>
-    <row r="9" spans="2:81">
+    <row r="9" spans="1:81">
       <c r="B9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -62646,7 +62645,7 @@
       <c r="CB10" s="9"/>
       <c r="CC10" s="9"/>
     </row>
-    <row r="11" spans="1:73">
+    <row r="11" spans="1:81">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="G11" s="9"/>
@@ -62708,7 +62707,7 @@
       <c r="BT11" s="9"/>
       <c r="BU11" s="9"/>
     </row>
-    <row r="12" spans="1:73">
+    <row r="12" spans="1:81">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="G12" s="9"/>
@@ -62770,7 +62769,7 @@
       <c r="BT12" s="9"/>
       <c r="BU12" s="9"/>
     </row>
-    <row r="13" spans="1:73">
+    <row r="13" spans="1:81">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="G13" s="9"/>
@@ -62827,7 +62826,7 @@
       <c r="BT13" s="9"/>
       <c r="BU13" s="9"/>
     </row>
-    <row r="14" spans="1:73">
+    <row r="14" spans="1:81">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -62888,7 +62887,7 @@
       <c r="BT14" s="9"/>
       <c r="BU14" s="9"/>
     </row>
-    <row r="15" spans="1:73">
+    <row r="15" spans="1:81">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -62949,7 +62948,7 @@
       <c r="BT15" s="9"/>
       <c r="BU15" s="9"/>
     </row>
-    <row r="16" spans="1:73">
+    <row r="16" spans="1:81">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -63075,7 +63074,7 @@
       <c r="BT17" s="9"/>
       <c r="BU17" s="9"/>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="1:73">
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -63086,7 +63085,7 @@
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="1:73">
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -63097,7 +63096,7 @@
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
     </row>
-    <row r="20" spans="5:15">
+    <row r="20" spans="1:73">
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -63108,7 +63107,7 @@
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
     </row>
-    <row r="21" spans="5:15">
+    <row r="21" spans="1:73">
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -63119,7 +63118,7 @@
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
     </row>
-    <row r="22" spans="5:24">
+    <row r="22" spans="1:73">
       <c r="E22" s="9"/>
       <c r="G22" s="9"/>
       <c r="I22" s="9"/>
@@ -63136,7 +63135,7 @@
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
     </row>
-    <row r="23" spans="5:24">
+    <row r="23" spans="1:73">
       <c r="E23" s="9"/>
       <c r="G23" s="9"/>
       <c r="I23" s="9"/>
@@ -63153,7 +63152,7 @@
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
     </row>
-    <row r="24" spans="5:24">
+    <row r="24" spans="1:73">
       <c r="E24" s="9"/>
       <c r="G24" s="9"/>
       <c r="I24" s="9"/>
@@ -63170,7 +63169,7 @@
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
     </row>
-    <row r="25" spans="5:24">
+    <row r="25" spans="1:73">
       <c r="E25" s="9"/>
       <c r="G25" s="9"/>
       <c r="I25" s="9"/>
@@ -63182,7 +63181,7 @@
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
     </row>
-    <row r="26" spans="5:24">
+    <row r="26" spans="1:73">
       <c r="E26" s="9"/>
       <c r="G26" s="9"/>
       <c r="I26" s="9"/>
@@ -63194,7 +63193,7 @@
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
     </row>
-    <row r="27" spans="7:24">
+    <row r="27" spans="1:73">
       <c r="G27" s="9"/>
       <c r="I27" s="10"/>
       <c r="J27" s="9"/>
@@ -63206,7 +63205,7 @@
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
     </row>
-    <row r="28" spans="7:24">
+    <row r="28" spans="1:73">
       <c r="G28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -63218,7 +63217,7 @@
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
     </row>
-    <row r="29" spans="7:24">
+    <row r="29" spans="1:73">
       <c r="G29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -63230,35 +63229,35 @@
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="1:73">
       <c r="B30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="1:73">
       <c r="B31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
     </row>
-    <row r="32" spans="9:17">
+    <row r="32" spans="1:73">
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
     </row>
-    <row r="33" spans="9:17">
+    <row r="33" spans="9:19">
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
     </row>
-    <row r="34" spans="9:17">
+    <row r="34" spans="9:19">
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
     </row>
-    <row r="35" spans="9:17">
+    <row r="35" spans="9:19">
       <c r="I35" s="9"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
@@ -63319,98 +63318,98 @@
       <c r="R40" s="9"/>
       <c r="S40" s="9"/>
     </row>
-    <row r="41" spans="14:19">
+    <row r="41" spans="9:19">
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
       <c r="S41" s="9"/>
     </row>
-    <row r="42" spans="14:19">
+    <row r="42" spans="9:19">
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
       <c r="S42" s="9"/>
     </row>
-    <row r="43" spans="14:19">
+    <row r="43" spans="9:19">
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
       <c r="Q43" s="9"/>
       <c r="S43" s="9"/>
     </row>
-    <row r="44" spans="14:19">
+    <row r="44" spans="9:19">
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
       <c r="Q44" s="9"/>
       <c r="S44" s="9"/>
     </row>
-    <row r="45" spans="14:19">
+    <row r="45" spans="9:19">
       <c r="N45" s="9"/>
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
       <c r="Q45" s="9"/>
       <c r="S45" s="9"/>
     </row>
-    <row r="46" spans="14:19">
+    <row r="46" spans="9:19">
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
       <c r="Q46" s="9"/>
       <c r="S46" s="9"/>
     </row>
-    <row r="47" spans="14:19">
+    <row r="47" spans="9:19">
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
       <c r="Q47" s="9"/>
       <c r="S47" s="9"/>
     </row>
-    <row r="48" spans="14:19">
+    <row r="48" spans="9:19">
       <c r="N48" s="9"/>
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
       <c r="Q48" s="9"/>
       <c r="S48" s="9"/>
     </row>
-    <row r="53" spans="15:19">
+    <row r="53" spans="9:19">
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
       <c r="Q53" s="9"/>
       <c r="R53" s="9"/>
       <c r="S53" s="9"/>
     </row>
-    <row r="54" spans="15:19">
+    <row r="54" spans="9:19">
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
       <c r="Q54" s="9"/>
       <c r="R54" s="9"/>
       <c r="S54" s="9"/>
     </row>
-    <row r="55" spans="15:19">
+    <row r="55" spans="9:19">
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
       <c r="Q55" s="9"/>
       <c r="R55" s="9"/>
       <c r="S55" s="9"/>
     </row>
-    <row r="56" spans="15:19">
+    <row r="56" spans="9:19">
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
       <c r="Q56" s="9"/>
       <c r="R56" s="9"/>
       <c r="S56" s="9"/>
     </row>
-    <row r="57" spans="15:19">
+    <row r="57" spans="9:19">
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
       <c r="Q57" s="9"/>
       <c r="R57" s="9"/>
       <c r="S57" s="9"/>
     </row>
-    <row r="58" spans="15:19">
+    <row r="58" spans="9:19">
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
       <c r="Q58" s="9"/>
@@ -63438,24 +63437,24 @@
       <c r="R60" s="9"/>
       <c r="S60" s="9"/>
     </row>
-    <row r="61" spans="9:12">
+    <row r="61" spans="9:19">
       <c r="I61" s="9"/>
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
     </row>
-    <row r="62" spans="9:12">
+    <row r="62" spans="9:19">
       <c r="I62" s="9"/>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
     </row>
-    <row r="63" spans="9:14">
+    <row r="63" spans="9:19">
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
       <c r="N63" s="9"/>
     </row>
-    <row r="64" spans="14:14">
+    <row r="64" spans="9:19">
       <c r="N64" s="9"/>
     </row>
     <row r="65" spans="14:14">
@@ -63477,8 +63476,8 @@
       <c r="N70" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="32" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>